--- a/CLIP Final Model Results.xlsx
+++ b/CLIP Final Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\CMPUT624_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BAAAC5-6BAC-4C36-ABFD-E5337D4E175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5F63-43B4-4D90-A3D8-6C9055B9ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Text Format</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>slurm-42667107</t>
+  </si>
+  <si>
+    <t>LOO Runs (within subject)</t>
+  </si>
+  <si>
+    <t>slurm-42682826</t>
+  </si>
+  <si>
+    <t>slurm-42682904</t>
+  </si>
+  <si>
+    <t>slurm-42682907</t>
+  </si>
+  <si>
+    <t>slurm-42682908</t>
+  </si>
+  <si>
+    <t>slurm-42682914</t>
+  </si>
+  <si>
+    <t>slurm-42682920</t>
   </si>
 </sst>
 </file>
@@ -426,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +537,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -569,61 +593,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
+      <c r="D19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CLIP Final Model Results.xlsx
+++ b/CLIP Final Model Results.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\CMPUT624_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5F63-43B4-4D90-A3D8-6C9055B9ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7488EB3B-7FAC-4CB0-89D1-974D0EA31C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
   <si>
     <t>Text Format</t>
   </si>
@@ -60,9 +71,6 @@
     <t>4 word blocks, 4 word separated</t>
   </si>
   <si>
-    <t>word-level fMRIs concatenated</t>
-  </si>
-  <si>
     <t>LOO Subject</t>
   </si>
   <si>
@@ -75,13 +83,7 @@
     <t>8 word blocks, 4 word separated</t>
   </si>
   <si>
-    <t>word-level fMRIs averaged</t>
-  </si>
-  <si>
     <t>16 word blocks, 4 word separated</t>
-  </si>
-  <si>
-    <t>slurm-42665482</t>
   </si>
   <si>
     <t>8 word blocks, 8 word separated</t>
@@ -90,37 +92,97 @@
     <t>16 word blocks, 16 word separated</t>
   </si>
   <si>
-    <t>slurm-42665628</t>
-  </si>
-  <si>
-    <t>slurm-42665641</t>
-  </si>
-  <si>
-    <t>slurm-42667072</t>
-  </si>
-  <si>
-    <t>slurm-42667107</t>
-  </si>
-  <si>
     <t>LOO Runs (within subject)</t>
   </si>
   <si>
-    <t>slurm-42682826</t>
+    <t>slurm-42722624</t>
   </si>
   <si>
-    <t>slurm-42682904</t>
+    <t>slurm-42723111</t>
   </si>
   <si>
-    <t>slurm-42682907</t>
+    <t>slurm-42723125</t>
   </si>
   <si>
-    <t>slurm-42682908</t>
+    <t>slurm-42723130</t>
   </si>
   <si>
-    <t>slurm-42682914</t>
+    <t>slurm-42723184</t>
   </si>
   <si>
-    <t>slurm-42682920</t>
+    <t>word-level fMRIs summed</t>
+  </si>
+  <si>
+    <t>slurm-42730648</t>
+  </si>
+  <si>
+    <t>slurm-42730666</t>
+  </si>
+  <si>
+    <t>Std.Dev</t>
+  </si>
+  <si>
+    <t>slurm-42730680</t>
+  </si>
+  <si>
+    <t>slurm-42730691</t>
+  </si>
+  <si>
+    <t>slurm-42730693</t>
+  </si>
+  <si>
+    <t>50 Epochs</t>
+  </si>
+  <si>
+    <t>10 Epochs</t>
+  </si>
+  <si>
+    <t>5 Epochs</t>
+  </si>
+  <si>
+    <t>slurm-42736523</t>
+  </si>
+  <si>
+    <t>slurm-42736538</t>
+  </si>
+  <si>
+    <t>LOO Subject, Runs</t>
+  </si>
+  <si>
+    <t>slurm-</t>
+  </si>
+  <si>
+    <t>50 epochs</t>
+  </si>
+  <si>
+    <t>10 epochs</t>
+  </si>
+  <si>
+    <t>5 epochs</t>
+  </si>
+  <si>
+    <t>slurm-42767510</t>
+  </si>
+  <si>
+    <t>slurm-42767512</t>
+  </si>
+  <si>
+    <t>slurm-42767886</t>
+  </si>
+  <si>
+    <t>slurm-42768821</t>
+  </si>
+  <si>
+    <t>0 epochs (untrained)</t>
+  </si>
+  <si>
+    <t>slurm-42769508</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>slurm-42769517</t>
   </si>
 </sst>
 </file>
@@ -447,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +543,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -516,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -527,166 +589,4646 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0.95393562030075096</v>
+      </c>
+      <c r="G2">
+        <v>6.7680921052631501E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.92818374060150399</v>
+      </c>
+      <c r="I2">
+        <v>6.2993421052631504E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.95926140310257002</v>
+      </c>
+      <c r="K2">
+        <v>0.59918962722852498</v>
+      </c>
+      <c r="L2">
+        <v>0.97420699235934205</v>
+      </c>
+      <c r="M2">
+        <v>0.62455429497568804</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0.96855028195488702</v>
+      </c>
+      <c r="G3">
+        <v>7.8207236842105204E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.93379934210526305</v>
+      </c>
+      <c r="I3">
+        <v>7.7549342105263097E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.96616114841398404</v>
+      </c>
+      <c r="K3">
+        <v>0.61564019448946505</v>
+      </c>
+      <c r="L3">
+        <v>0.98115304468626996</v>
+      </c>
+      <c r="M3">
+        <v>0.64051863857374303</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.97528195488721803</v>
+      </c>
+      <c r="G4">
+        <v>9.8355263157894696E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.94849624060150295</v>
+      </c>
+      <c r="I4">
+        <v>0.106003289473684</v>
+      </c>
+      <c r="J4">
+        <v>0.97020143551747995</v>
+      </c>
+      <c r="K4">
+        <v>0.69797406807131201</v>
+      </c>
+      <c r="L4">
+        <v>0.97825885621671604</v>
+      </c>
+      <c r="M4">
+        <v>0.74068071312803796</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5">
+        <v>0.956849154135338</v>
+      </c>
+      <c r="G5">
+        <v>8.9638157894736795E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.92050046992481205</v>
+      </c>
+      <c r="I5">
+        <v>8.3963815789473595E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.96472563093308605</v>
+      </c>
+      <c r="K5">
+        <v>0.66669367909238197</v>
+      </c>
+      <c r="L5">
+        <v>0.97649918962722804</v>
+      </c>
+      <c r="M5">
+        <v>0.70218800648298196</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>4</v>
       </c>
+      <c r="F6">
+        <v>0.97013627819548798</v>
+      </c>
+      <c r="G6">
+        <v>6.0032894736842098E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.93900375939849601</v>
+      </c>
+      <c r="I6">
+        <v>4.6628289473684199E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.97072238944199996</v>
+      </c>
+      <c r="K6">
+        <v>0.58476499189627196</v>
+      </c>
+      <c r="L6">
+        <v>0.97871034961796699</v>
+      </c>
+      <c r="M6">
+        <v>0.60397082658022705</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>0.96536654135338296</v>
+      </c>
+      <c r="G7">
+        <v>9.3585526315789397E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.94526550751879701</v>
+      </c>
+      <c r="I7">
+        <v>9.7121710526315796E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.96396156517712395</v>
+      </c>
+      <c r="K7">
+        <v>0.67844408427876801</v>
+      </c>
+      <c r="L7">
+        <v>0.973037740217642</v>
+      </c>
+      <c r="M7">
+        <v>0.70364667747163701</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>0.93141447368421004</v>
+      </c>
+      <c r="G8">
+        <v>9.6957236842105193E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.89300986842105201</v>
+      </c>
+      <c r="I8">
+        <v>9.1694078947368404E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.95133132669599396</v>
+      </c>
+      <c r="K8">
+        <v>0.64764991896272195</v>
+      </c>
+      <c r="L8">
+        <v>0.96880064829821699</v>
+      </c>
+      <c r="M8">
+        <v>0.67504051863857295</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>7</v>
       </c>
+      <c r="F9">
+        <v>0.957366071428571</v>
+      </c>
+      <c r="G9">
+        <v>0.13412828947368399</v>
+      </c>
+      <c r="H9">
+        <v>0.915202067669173</v>
+      </c>
+      <c r="I9">
+        <v>0.13207236842105199</v>
+      </c>
+      <c r="J9">
+        <v>0.96616114841398404</v>
+      </c>
+      <c r="K9">
+        <v>0.72220421393841105</v>
+      </c>
+      <c r="L9">
+        <v>0.97450798796017502</v>
+      </c>
+      <c r="M9">
+        <v>0.72836304700162002</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>3</v>
       </c>
+      <c r="F10">
+        <f t="shared" ref="F10:M10" si="0">AVERAGE(F2:F9)</f>
+        <v>0.95986254699248075</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.9823190789473623E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.92793262453007497</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8.7253289473684062E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.9640657559620277</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.65157009724473225</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.97564685112294458</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.67737034035656352</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.STDEV.S(F2:F10)</f>
+        <v>1.2790683362668465E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:M11" si="1">_xlfn.STDEV.S(G2:G10)</f>
+        <v>2.1252924155552241E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.7019273980594871E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2.4549281444084605E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>5.8782699174182761E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.5560951353765859E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>3.6107547257757623E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>4.6710974542129913E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" ref="F21:M21" si="2">AVERAGE(F13:F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="e">
+        <f>_xlfn.STDEV.S(F13:F21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" ref="G22:M22" si="3">_xlfn.STDEV.S(G13:G21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="e">
+        <f t="shared" ref="F32:M32" si="4">AVERAGE(F24:F31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="e">
+        <f>_xlfn.STDEV.S(F24:F32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" ref="G33:M33" si="5">_xlfn.STDEV.S(G24:G32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="e">
+        <f t="shared" ref="F43:M43" si="6">AVERAGE(F35:F42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="e">
+        <f>_xlfn.STDEV.S(F35:F43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" ref="G44:M44" si="7">_xlfn.STDEV.S(G35:G43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" ref="F54:M54" si="8">AVERAGE(F46:F53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="e">
+        <f>_xlfn.STDEV.S(F46:F54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" ref="G55:M55" si="9">_xlfn.STDEV.S(G46:G54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.94511278195488702</v>
+      </c>
+      <c r="G57">
+        <v>8.7911184210526294E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.90849389097744304</v>
+      </c>
+      <c r="I57">
+        <v>8.4128289473684198E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.96490027829313496</v>
+      </c>
+      <c r="K57">
+        <v>0.63214285714285701</v>
+      </c>
+      <c r="L57">
+        <v>0.97823515769944303</v>
+      </c>
+      <c r="M57">
+        <v>0.66826298701298703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0.95637922932330799</v>
+      </c>
+      <c r="G58">
+        <v>0.111677631578947</v>
+      </c>
+      <c r="H58">
+        <v>0.92242716165413496</v>
+      </c>
+      <c r="I58">
+        <v>0.110197368421052</v>
+      </c>
+      <c r="J58">
+        <v>0.96792671614100101</v>
+      </c>
+      <c r="K58">
+        <v>0.66387987012987004</v>
+      </c>
+      <c r="L58">
+        <v>0.98019480519480495</v>
+      </c>
+      <c r="M58">
+        <v>0.68814935064935001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0.940707236842105</v>
+      </c>
+      <c r="G59">
+        <v>7.5328947368420995E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.90593280075187899</v>
+      </c>
+      <c r="I59">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.96114332096474897</v>
+      </c>
+      <c r="K59">
+        <v>0.63555194805194803</v>
+      </c>
+      <c r="L59">
+        <v>0.97510435992578803</v>
+      </c>
+      <c r="M59">
+        <v>0.65998376623376598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>0.95639097744360801</v>
+      </c>
+      <c r="G60">
+        <v>9.62993421052631E-2</v>
+      </c>
+      <c r="H60">
+        <v>0.91863251879699204</v>
+      </c>
+      <c r="I60">
+        <v>9.7203947368421001E-2</v>
+      </c>
+      <c r="J60">
+        <v>0.96456400742115</v>
+      </c>
+      <c r="K60">
+        <v>0.66655844155844102</v>
+      </c>
+      <c r="L60">
+        <v>0.97883812615955401</v>
+      </c>
+      <c r="M60">
+        <v>0.70495129870129802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>0.94090695488721798</v>
+      </c>
+      <c r="G61">
+        <v>4.6792763157894698E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.90999765037593905</v>
+      </c>
+      <c r="I61">
+        <v>3.9967105263157901E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.96164192949907201</v>
+      </c>
+      <c r="K61">
+        <v>0.58644480519480502</v>
+      </c>
+      <c r="L61">
+        <v>0.97476808905380297</v>
+      </c>
+      <c r="M61">
+        <v>0.60097402597402605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>0.96159539473684197</v>
+      </c>
+      <c r="G62">
+        <v>4.8437500000000001E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.93425751879699204</v>
+      </c>
+      <c r="I62">
+        <v>5.8059210526315699E-2</v>
+      </c>
+      <c r="J62">
+        <v>0.96847170686456396</v>
+      </c>
+      <c r="K62">
+        <v>0.61810064935064901</v>
+      </c>
+      <c r="L62">
+        <v>0.97830473098330195</v>
+      </c>
+      <c r="M62">
+        <v>0.63977272727272705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0.94759163533834501</v>
+      </c>
+      <c r="G63">
+        <v>8.9226973684210495E-2</v>
+      </c>
+      <c r="H63">
+        <v>0.92178101503759302</v>
+      </c>
+      <c r="I63">
+        <v>8.4621710526315799E-2</v>
+      </c>
+      <c r="J63">
+        <v>0.96433209647495299</v>
+      </c>
+      <c r="K63">
+        <v>0.58741883116883098</v>
+      </c>
+      <c r="L63">
+        <v>0.97292439703153899</v>
+      </c>
+      <c r="M63">
+        <v>0.612418831168831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>0.92957001879699197</v>
+      </c>
+      <c r="G64">
+        <v>9.4983552631578899E-2</v>
+      </c>
+      <c r="H64">
+        <v>0.88878054511278104</v>
+      </c>
+      <c r="I64">
+        <v>8.4703947368421004E-2</v>
+      </c>
+      <c r="J64">
+        <v>0.95067254174396998</v>
+      </c>
+      <c r="K64">
+        <v>0.63384740259740202</v>
+      </c>
+      <c r="L64">
+        <v>0.96840213358070404</v>
+      </c>
+      <c r="M64">
+        <v>0.64188311688311595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:M65" si="10">AVERAGE(F57:F64)</f>
+        <v>0.94728177866541308</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="10"/>
+        <v>8.1332236842105179E-2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="10"/>
+        <v>0.91378788768796926</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="10"/>
+        <v>7.9625822368420945E-2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="10"/>
+        <v>0.96295657467532425</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="10"/>
+        <v>0.62799310064935043</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="10"/>
+        <v>0.97584647495361732</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="10"/>
+        <v>0.65204951298701253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66">
+        <f>_xlfn.STDEV.S(F57:F65)</f>
+        <v>9.8297424292798901E-3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:M66" si="11">_xlfn.STDEV.S(G57:G65)</f>
+        <v>2.1644582178798673E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="11"/>
+        <v>1.2798756098302493E-2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="11"/>
+        <v>2.0478077989536894E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="11"/>
+        <v>5.2355338705579891E-3</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="11"/>
+        <v>2.8182813999061637E-2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="11"/>
+        <v>3.6276230081609588E-3</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="11"/>
+        <v>3.3280996300038425E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.94490131578947301</v>
+      </c>
+      <c r="G69">
+        <v>8.4786184210526305E-2</v>
+      </c>
+      <c r="H69">
+        <v>0.91924342105263102</v>
+      </c>
+      <c r="I69">
+        <v>8.1578947368421001E-2</v>
+      </c>
+      <c r="J69">
+        <v>0.96878048780487802</v>
+      </c>
+      <c r="K69">
+        <v>0.59365853658536505</v>
+      </c>
+      <c r="L69">
+        <v>0.98220673635307698</v>
+      </c>
+      <c r="M69">
+        <v>0.61536585365853602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0.94553571428571404</v>
+      </c>
+      <c r="G70">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="H70">
+        <v>0.92085291353383403</v>
+      </c>
+      <c r="I70">
+        <v>9.8190789473684204E-2</v>
+      </c>
+      <c r="J70">
+        <v>0.96975609756097503</v>
+      </c>
+      <c r="K70">
+        <v>0.66146341463414604</v>
+      </c>
+      <c r="L70">
+        <v>0.98255516840882695</v>
+      </c>
+      <c r="M70">
+        <v>0.68577235772357703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>0.94130639097744295</v>
+      </c>
+      <c r="G71">
+        <v>9.1200657894736803E-2</v>
+      </c>
+      <c r="H71">
+        <v>0.90380639097744297</v>
+      </c>
+      <c r="I71">
+        <v>8.6924342105263105E-2</v>
+      </c>
+      <c r="J71">
+        <v>0.96709639953542303</v>
+      </c>
+      <c r="K71">
+        <v>0.66024390243902398</v>
+      </c>
+      <c r="L71">
+        <v>0.97713124274099805</v>
+      </c>
+      <c r="M71">
+        <v>0.68333333333333302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>0.95039943609022504</v>
+      </c>
+      <c r="G72">
+        <v>8.3141447368420995E-2</v>
+      </c>
+      <c r="H72">
+        <v>0.92800751879699195</v>
+      </c>
+      <c r="I72">
+        <v>8.2894736842105202E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.97053426248548202</v>
+      </c>
+      <c r="K72">
+        <v>0.63300813008129997</v>
+      </c>
+      <c r="L72">
+        <v>0.97839721254355305</v>
+      </c>
+      <c r="M72">
+        <v>0.65032520325203202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>0.95093984962405997</v>
+      </c>
+      <c r="G73">
+        <v>6.7187499999999997E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.92918233082706703</v>
+      </c>
+      <c r="I73">
+        <v>5.3536184210526298E-2</v>
+      </c>
+      <c r="J73">
+        <v>0.96860627177700298</v>
+      </c>
+      <c r="K73">
+        <v>0.62008130081300805</v>
+      </c>
+      <c r="L73">
+        <v>0.97696864111498205</v>
+      </c>
+      <c r="M73">
+        <v>0.62308943089430902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>0.96039708646616495</v>
+      </c>
+      <c r="G74">
+        <v>6.6282894736842096E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.94379699248120297</v>
+      </c>
+      <c r="I74">
+        <v>5.7401315789473599E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.97084785133565599</v>
+      </c>
+      <c r="K74">
+        <v>0.55642276422764203</v>
+      </c>
+      <c r="L74">
+        <v>0.98102206736353004</v>
+      </c>
+      <c r="M74">
+        <v>0.57162601626016196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>0.92592810150375904</v>
+      </c>
+      <c r="G75">
+        <v>8.5279605263157796E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.88631343984962396</v>
+      </c>
+      <c r="I75">
+        <v>8.4786184210526305E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.96192799070847801</v>
+      </c>
+      <c r="K75">
+        <v>0.637398373983739</v>
+      </c>
+      <c r="L75">
+        <v>0.979291521486643</v>
+      </c>
+      <c r="M75">
+        <v>0.66601626016260096</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>0.92626879699248099</v>
+      </c>
+      <c r="G76">
+        <v>9.4901315789473598E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.89517152255639099</v>
+      </c>
+      <c r="I76">
+        <v>0.107565789473684</v>
+      </c>
+      <c r="J76">
+        <v>0.95671312427409905</v>
+      </c>
+      <c r="K76">
+        <v>0.66</v>
+      </c>
+      <c r="L76">
+        <v>0.96752613240418095</v>
+      </c>
+      <c r="M76">
+        <v>0.66536585365853596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:M77" si="12">AVERAGE(F69:F76)</f>
+        <v>0.94320958646616504</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="12"/>
+        <v>8.4097450657894687E-2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="12"/>
+        <v>0.91579681625939813</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="12"/>
+        <v>8.1609786184210456E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="12"/>
+        <v>0.96678281068524929</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="12"/>
+        <v>0.62778455284552803</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="12"/>
+        <v>0.97813734030197397</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="12"/>
+        <v>0.64511178861788576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78">
+        <f>_xlfn.STDEV.S(F69:F77)</f>
+        <v>1.1204887910299244E-2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:M78" si="13">_xlfn.STDEV.S(G69:G77)</f>
+        <v>1.132563877907378E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="13"/>
+        <v>1.7986692486051246E-2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="13"/>
+        <v>1.7185775374433131E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="13"/>
+        <v>4.6343864826483994E-3</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>3.475243051067986E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="13"/>
+        <v>4.4829444920882703E-3</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="13"/>
+        <v>3.6671746207295103E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0.96475563909774398</v>
+      </c>
+      <c r="G81">
+        <v>7.6973684210526305E-2</v>
+      </c>
+      <c r="H81">
+        <v>0.93865131578947303</v>
+      </c>
+      <c r="I81">
+        <v>7.7302631578947303E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.96910946196660497</v>
+      </c>
+      <c r="K81">
+        <v>0.60178571428571404</v>
+      </c>
+      <c r="L81">
+        <v>0.989517625231911</v>
+      </c>
+      <c r="M81">
+        <v>0.62792207792207799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0.96423872180451098</v>
+      </c>
+      <c r="G82">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.93197838345864603</v>
+      </c>
+      <c r="I82">
+        <v>6.3815789473684201E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.97228664192949898</v>
+      </c>
+      <c r="K82">
+        <v>0.58944805194805105</v>
+      </c>
+      <c r="L82">
+        <v>0.99211502782931305</v>
+      </c>
+      <c r="M82">
+        <v>0.61298701298701297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0.95044642857142803</v>
+      </c>
+      <c r="G83">
+        <v>0.100657894736842</v>
+      </c>
+      <c r="H83">
+        <v>0.89847274436090196</v>
+      </c>
+      <c r="I83">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.96396103896103802</v>
+      </c>
+      <c r="K83">
+        <v>0.64496753246753202</v>
+      </c>
+      <c r="L83">
+        <v>0.98179499072356202</v>
+      </c>
+      <c r="M83">
+        <v>0.68116883116883098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>0.97337875939849605</v>
+      </c>
+      <c r="G84">
+        <v>6.0690789473684198E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.94405545112781897</v>
+      </c>
+      <c r="I84">
+        <v>5.1315789473684197E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.97156771799628905</v>
+      </c>
+      <c r="K84">
+        <v>0.55974025974025898</v>
+      </c>
+      <c r="L84">
+        <v>0.98882189239332097</v>
+      </c>
+      <c r="M84">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>0.97699718045112705</v>
+      </c>
+      <c r="G85">
+        <v>7.28618421052631E-2</v>
+      </c>
+      <c r="H85">
+        <v>0.95540413533834501</v>
+      </c>
+      <c r="I85">
+        <v>5.7401315789473599E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.97942949907235599</v>
+      </c>
+      <c r="K85">
+        <v>0.55941558441558403</v>
+      </c>
+      <c r="L85">
+        <v>0.99167439703153903</v>
+      </c>
+      <c r="M85">
+        <v>0.586201298701298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>0.95909304511278104</v>
+      </c>
+      <c r="G86">
+        <v>0.100986842105263</v>
+      </c>
+      <c r="H86">
+        <v>0.93468045112781895</v>
+      </c>
+      <c r="I86">
+        <v>9.8684210526315694E-2</v>
+      </c>
+      <c r="J86">
+        <v>0.96588589981447104</v>
+      </c>
+      <c r="K86">
+        <v>0.65097402597402598</v>
+      </c>
+      <c r="L86">
+        <v>0.98842764378478598</v>
+      </c>
+      <c r="M86">
+        <v>0.69350649350649296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>0.94795582706766901</v>
+      </c>
+      <c r="G87">
+        <v>9.0131578947368396E-2</v>
+      </c>
+      <c r="H87">
+        <v>0.91024436090225502</v>
+      </c>
+      <c r="I87">
+        <v>8.8322368421052594E-2</v>
+      </c>
+      <c r="J87">
+        <v>0.96212894248608505</v>
+      </c>
+      <c r="K87">
+        <v>0.58149350649350595</v>
+      </c>
+      <c r="L87">
+        <v>0.98207328385899795</v>
+      </c>
+      <c r="M87">
+        <v>0.60957792207792205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>0.96597744360902205</v>
+      </c>
+      <c r="G88">
+        <v>9.8355263157894696E-2</v>
+      </c>
+      <c r="H88">
+        <v>0.93524436090225505</v>
+      </c>
+      <c r="I88">
+        <v>8.2565789473684204E-2</v>
+      </c>
+      <c r="J88">
+        <v>0.97309833024118697</v>
+      </c>
+      <c r="K88">
+        <v>0.63100649350649296</v>
+      </c>
+      <c r="L88">
+        <v>0.98923933209647397</v>
+      </c>
+      <c r="M88">
+        <v>0.67061688311688294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <f>AVERAGE(F81:F88)</f>
+        <v>0.96285538063909726</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89:M89" si="14">AVERAGE(G81:G88)</f>
+        <v>8.3675986842105213E-2</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="14"/>
+        <v>0.93109140037593918</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="14"/>
+        <v>7.6644736842105224E-2</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="14"/>
+        <v>0.96968344155844111</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="14"/>
+        <v>0.60235389610389556</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="14"/>
+        <v>0.98795802411873812</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="14"/>
+        <v>0.63167613636363606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90">
+        <f>_xlfn.STDEV.S(F81:F89)</f>
+        <v>9.4613546286539188E-3</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90" si="15">_xlfn.STDEV.S(G81:G89)</f>
+        <v>1.4824716255728015E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90" si="16">_xlfn.STDEV.S(H81:H89)</f>
+        <v>1.7123882791205955E-2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ref="I90" si="17">_xlfn.STDEV.S(I81:I89)</f>
+        <v>1.6304270591646287E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90" si="18">_xlfn.STDEV.S(J81:J89)</f>
+        <v>5.2623827212136178E-3</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ref="K90" si="19">_xlfn.STDEV.S(K81:K89)</f>
+        <v>3.4026589757242549E-2</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L90" si="20">_xlfn.STDEV.S(L81:L89)</f>
+        <v>3.6869054236579281E-3</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ref="M90" si="21">_xlfn.STDEV.S(M81:M89)</f>
+        <v>4.2335474138424097E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.99345238095237998</v>
+      </c>
+      <c r="G93">
+        <v>6.1805555555555503E-2</v>
+      </c>
+      <c r="H93">
+        <v>0.97247023809523803</v>
+      </c>
+      <c r="I93">
+        <v>6.0763888888888798E-2</v>
+      </c>
+      <c r="J93">
+        <v>0.98886827458255999</v>
+      </c>
+      <c r="K93">
+        <v>0.58636363636363598</v>
+      </c>
+      <c r="L93">
+        <v>0.99703153988868198</v>
+      </c>
+      <c r="M93">
+        <v>0.61396103896103804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0.99112103174603094</v>
+      </c>
+      <c r="G94">
+        <v>0.113888888888888</v>
+      </c>
+      <c r="H94">
+        <v>0.96870039682539599</v>
+      </c>
+      <c r="I94">
+        <v>0.132986111111111</v>
+      </c>
+      <c r="J94">
+        <v>0.98812615955473004</v>
+      </c>
+      <c r="K94">
+        <v>0.70357142857142796</v>
+      </c>
+      <c r="L94">
+        <v>0.99670686456400703</v>
+      </c>
+      <c r="M94">
+        <v>0.76688311688311595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0.99345238095238098</v>
+      </c>
+      <c r="G95">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="H95">
+        <v>0.96949404761904701</v>
+      </c>
+      <c r="I95">
+        <v>9.5138888888888801E-2</v>
+      </c>
+      <c r="J95">
+        <v>0.98998144712430403</v>
+      </c>
+      <c r="K95">
+        <v>0.62110389610389605</v>
+      </c>
+      <c r="L95">
+        <v>0.99652133580705005</v>
+      </c>
+      <c r="M95">
+        <v>0.64837662337662305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>0.98675595238095204</v>
+      </c>
+      <c r="G96">
+        <v>0.110763888888888</v>
+      </c>
+      <c r="H96">
+        <v>0.96646825396825298</v>
+      </c>
+      <c r="I96">
+        <v>0.12951388888888801</v>
+      </c>
+      <c r="J96">
+        <v>0.98752319109461895</v>
+      </c>
+      <c r="K96">
+        <v>0.67759740259740198</v>
+      </c>
+      <c r="L96">
+        <v>0.99605751391465602</v>
+      </c>
+      <c r="M96">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>0.99662698412698403</v>
+      </c>
+      <c r="G97">
+        <v>7.0833333333333304E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.97976190476190395</v>
+      </c>
+      <c r="I97">
+        <v>5.7986111111111099E-2</v>
+      </c>
+      <c r="J97">
+        <v>0.99206864564007402</v>
+      </c>
+      <c r="K97">
+        <v>0.63279220779220702</v>
+      </c>
+      <c r="L97">
+        <v>0.99856215213358002</v>
+      </c>
+      <c r="M97">
+        <v>0.65324675324675296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>0.99102182539682504</v>
+      </c>
+      <c r="G98">
+        <v>9.0972222222222204E-2</v>
+      </c>
+      <c r="H98">
+        <v>0.97321428571428503</v>
+      </c>
+      <c r="I98">
+        <v>9.9305555555555494E-2</v>
+      </c>
+      <c r="J98">
+        <v>0.98998144712430403</v>
+      </c>
+      <c r="K98">
+        <v>0.61720779220779198</v>
+      </c>
+      <c r="L98">
+        <v>0.99652133580704905</v>
+      </c>
+      <c r="M98">
+        <v>0.65162337662337599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>0.98913690476190397</v>
+      </c>
+      <c r="G99">
+        <v>7.0138888888888806E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.95907738095238104</v>
+      </c>
+      <c r="I99">
+        <v>7.6041666666666605E-2</v>
+      </c>
+      <c r="J99">
+        <v>0.98877551020408105</v>
+      </c>
+      <c r="K99">
+        <v>0.631493506493506</v>
+      </c>
+      <c r="L99">
+        <v>0.99768089053803299</v>
+      </c>
+      <c r="M99">
+        <v>0.68279220779220695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>0.98596230158730103</v>
+      </c>
+      <c r="G100">
+        <v>9.5486111111111105E-2</v>
+      </c>
+      <c r="H100">
+        <v>0.96130952380952295</v>
+      </c>
+      <c r="I100">
+        <v>8.6111111111111097E-2</v>
+      </c>
+      <c r="J100">
+        <v>0.98919294990723505</v>
+      </c>
+      <c r="K100">
+        <v>0.63701298701298703</v>
+      </c>
+      <c r="L100">
+        <v>0.99693877551020404</v>
+      </c>
+      <c r="M100">
+        <v>0.67922077922077895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ref="F101:M101" si="22">AVERAGE(F93:F100)</f>
+        <v>0.99094122023809472</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="22"/>
+        <v>8.923611111111085E-2</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="22"/>
+        <v>0.9688120039682534</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="22"/>
+        <v>9.2230902777777624E-2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="22"/>
+        <v>0.98931470315398828</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="22"/>
+        <v>0.63839285714285676</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="22"/>
+        <v>0.99700255102040769</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="22"/>
+        <v>0.67629870129870073</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102">
+        <f>_xlfn.STDEV.S(F93:F101)</f>
+        <v>3.3641538486857401E-3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102" si="23">_xlfn.STDEV.S(G93:G101)</f>
+        <v>1.8319880112332564E-2</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ref="H102" si="24">_xlfn.STDEV.S(H93:H101)</f>
+        <v>6.2217761375047654E-3</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ref="I102" si="25">_xlfn.STDEV.S(I93:I101)</f>
+        <v>2.6391137456740973E-2</v>
+      </c>
+      <c r="J102">
+        <f t="shared" ref="J102" si="26">_xlfn.STDEV.S(J93:J101)</f>
+        <v>1.3038547161440431E-3</v>
+      </c>
+      <c r="K102">
+        <f t="shared" ref="K102" si="27">_xlfn.STDEV.S(K93:K101)</f>
+        <v>3.4133689144444063E-2</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ref="L102" si="28">_xlfn.STDEV.S(L93:L101)</f>
+        <v>7.3663674718674622E-4</v>
+      </c>
+      <c r="M102">
+        <f t="shared" ref="M102" si="29">_xlfn.STDEV.S(M93:M101)</f>
+        <v>4.4024345830521547E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.99961350859788201</v>
+      </c>
+      <c r="G105">
+        <v>3.46490575396824E-2</v>
+      </c>
+      <c r="H105">
+        <v>0.99898148148148003</v>
+      </c>
+      <c r="I105">
+        <v>3.4852430555555397E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.99844958206548595</v>
+      </c>
+      <c r="K105">
+        <v>0.51784071683956001</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0.525782073615634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0.99884610615079195</v>
+      </c>
+      <c r="G106">
+        <v>3.8788442460317402E-2</v>
+      </c>
+      <c r="H106">
+        <v>0.99678488756613604</v>
+      </c>
+      <c r="I106">
+        <v>3.7114335317460202E-2</v>
+      </c>
+      <c r="J106">
+        <v>0.99743752117876605</v>
+      </c>
+      <c r="K106">
+        <v>0.528106788657972</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0.53944546863990395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>0.99941778273809401</v>
+      </c>
+      <c r="G107">
+        <v>3.6502976190476003E-2</v>
+      </c>
+      <c r="H107">
+        <v>0.99934606481481403</v>
+      </c>
+      <c r="I107">
+        <v>3.9010416666666603E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.99920367648932396</v>
+      </c>
+      <c r="K107">
+        <v>0.52333101484659394</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0.53963352778260798</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>0.99980551421957597</v>
+      </c>
+      <c r="G108">
+        <v>3.9325396825396798E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.99912801752645397</v>
+      </c>
+      <c r="I108">
+        <v>3.7003968253968199E-2</v>
+      </c>
+      <c r="J108">
+        <v>0.99886935356836004</v>
+      </c>
+      <c r="K108">
+        <v>0.51582503725153594</v>
+      </c>
+      <c r="L108">
+        <v>0.99997276688452996</v>
+      </c>
+      <c r="M108">
+        <v>0.52245949581325002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>0.99931278935184997</v>
+      </c>
+      <c r="G109">
+        <v>3.2021329365079197E-2</v>
+      </c>
+      <c r="H109">
+        <v>0.99840484457671796</v>
+      </c>
+      <c r="I109">
+        <v>3.5038442460317398E-2</v>
+      </c>
+      <c r="J109">
+        <v>0.99774629531967596</v>
+      </c>
+      <c r="K109">
+        <v>0.53121449160015</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0.53135818208296004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <v>0.99956473214285602</v>
+      </c>
+      <c r="G110">
+        <v>3.6346726190475999E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.99821263227513202</v>
+      </c>
+      <c r="I110">
+        <v>3.41158234126984E-2</v>
+      </c>
+      <c r="J110">
+        <v>0.998960207273764</v>
+      </c>
+      <c r="K110">
+        <v>0.520358524105756</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0.523352020382442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>0.99945746527777601</v>
+      </c>
+      <c r="G111">
+        <v>3.1102430555555401E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.99896040013227405</v>
+      </c>
+      <c r="I111">
+        <v>3.63479662698412E-2</v>
+      </c>
+      <c r="J111">
+        <v>0.99835264974632598</v>
+      </c>
+      <c r="K111">
+        <v>0.51661195501268198</v>
+      </c>
+      <c r="L111">
+        <v>0.99997252747252596</v>
+      </c>
+      <c r="M111">
+        <v>0.52751844800445002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>0.99948805390211604</v>
+      </c>
+      <c r="G112">
+        <v>3.6468253968253803E-2</v>
+      </c>
+      <c r="H112">
+        <v>0.99877480158730003</v>
+      </c>
+      <c r="I112">
+        <v>3.4433283730158602E-2</v>
+      </c>
+      <c r="J112">
+        <v>0.99898020132626597</v>
+      </c>
+      <c r="K112">
+        <v>0.524277002451628</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0.53897548055697797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ref="F113:M113" si="30">AVERAGE(F105:F112)</f>
+        <v>0.99943824404761772</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="30"/>
+        <v>3.5650576636904623E-2</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="30"/>
+        <v>0.99857414124503852</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="30"/>
+        <v>3.5989583333333248E-2</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="30"/>
+        <v>0.99849993587099595</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="30"/>
+        <v>0.52219569134573474</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="30"/>
+        <v>0.99999316179463194</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="30"/>
+        <v>0.53106558710977825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114">
+        <f>_xlfn.STDEV.S(F105:F113)</f>
+        <v>2.6249752190625453E-4</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ref="G114:M114" si="31">_xlfn.STDEV.S(G105:G113)</f>
+        <v>2.7406755508680167E-3</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="31"/>
+        <v>7.598363579195942E-4</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="31"/>
+        <v>1.5683887530406554E-3</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="31"/>
+        <v>5.9109567032881278E-4</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="31"/>
+        <v>5.1962122776711764E-3</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="31"/>
+        <v>1.1844270359416229E-5</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="31"/>
+        <v>6.8951584257819724E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0.99963872354497196</v>
+      </c>
+      <c r="G117">
+        <v>3.1068948412698399E-2</v>
+      </c>
+      <c r="H117">
+        <v>0.99895916005290997</v>
+      </c>
+      <c r="I117">
+        <v>3.6509176587301399E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.99908663289470001</v>
+      </c>
+      <c r="K117">
+        <v>0.51694706418357395</v>
+      </c>
+      <c r="L117">
+        <v>0.99997464503042599</v>
+      </c>
+      <c r="M117">
+        <v>0.51808922310309002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0.99953559027777605</v>
+      </c>
+      <c r="G118">
+        <v>3.5519593253968203E-2</v>
+      </c>
+      <c r="H118">
+        <v>0.99858300264550204</v>
+      </c>
+      <c r="I118">
+        <v>3.7762896825396797E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.99853533608515799</v>
+      </c>
+      <c r="K118">
+        <v>0.49838761878194199</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0.49502494521857798</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0.99989211309523796</v>
+      </c>
+      <c r="G119">
+        <v>2.9990079365079199E-2</v>
+      </c>
+      <c r="H119">
+        <v>0.99935619212962801</v>
+      </c>
+      <c r="I119">
+        <v>2.88231646825396E-2</v>
+      </c>
+      <c r="J119">
+        <v>0.99978171101470803</v>
+      </c>
+      <c r="K119">
+        <v>0.52676850953488596</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0.54273582449693203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>0.99970010747354399</v>
+      </c>
+      <c r="G120">
+        <v>3.79774305555554E-2</v>
+      </c>
+      <c r="H120">
+        <v>0.99963769014550197</v>
+      </c>
+      <c r="I120">
+        <v>3.8108878968253802E-2</v>
+      </c>
+      <c r="J120">
+        <v>0.998947346002934</v>
+      </c>
+      <c r="K120">
+        <v>0.52779054681659199</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0.53856103386840803</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>0.99948371362433797</v>
+      </c>
+      <c r="G121">
+        <v>3.5957341269841202E-2</v>
+      </c>
+      <c r="H121">
+        <v>0.99869750330687801</v>
+      </c>
+      <c r="I121">
+        <v>3.54935515873014E-2</v>
+      </c>
+      <c r="J121">
+        <v>0.99755568145647</v>
+      </c>
+      <c r="K121">
+        <v>0.52502272800780003</v>
+      </c>
+      <c r="L121">
+        <v>0.99997270742358002</v>
+      </c>
+      <c r="M121">
+        <v>0.5310452004806</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>0.999501281415342</v>
+      </c>
+      <c r="G122">
+        <v>3.04129464285714E-2</v>
+      </c>
+      <c r="H122">
+        <v>0.99856832837301401</v>
+      </c>
+      <c r="I122">
+        <v>2.8389136904761799E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.99840400612502</v>
+      </c>
+      <c r="K122">
+        <v>0.50125127863891605</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0.49914478904683002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>0.99931630291005202</v>
+      </c>
+      <c r="G123">
+        <v>3.6499255952380801E-2</v>
+      </c>
+      <c r="H123">
+        <v>0.99888888888888805</v>
+      </c>
+      <c r="I123">
+        <v>3.8499503968253801E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.99831277924338002</v>
+      </c>
+      <c r="K123">
+        <v>0.50536225698396997</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0.51628961511326998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124">
+        <v>0.99985635747354396</v>
+      </c>
+      <c r="G124">
+        <v>3.19208829365078E-2</v>
+      </c>
+      <c r="H124">
+        <v>0.99958581349206199</v>
+      </c>
+      <c r="I124">
+        <v>3.5390625000000002E-2</v>
+      </c>
+      <c r="J124">
+        <v>0.99853423702114197</v>
+      </c>
+      <c r="K124">
+        <v>0.51579833319552004</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0.52799873957069798</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ref="F125:M125" si="32">AVERAGE(F117:F124)</f>
+        <v>0.9996155237268507</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="32"/>
+        <v>3.3668309771825305E-2</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="32"/>
+        <v>0.99903457237929794</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="32"/>
+        <v>3.4872116815476077E-2</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="32"/>
+        <v>0.99864471623043904</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="32"/>
+        <v>0.51466604201790001</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="32"/>
+        <v>0.99999341905675077</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="32"/>
+        <v>0.52111117136230078</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <f>_xlfn.STDEV.S(F117:F125)</f>
+        <v>1.8321533654644257E-4</v>
+      </c>
+      <c r="G126">
+        <f t="shared" ref="G126:M126" si="33">_xlfn.STDEV.S(G117:G125)</f>
+        <v>2.9408043835395434E-3</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="33"/>
+        <v>4.0817919225539525E-4</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="33"/>
+        <v>3.7740068709266211E-3</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="33"/>
+        <v>6.0806272145826491E-4</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="33"/>
+        <v>1.0977088593155519E-2</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="33"/>
+        <v>1.1408816203602809E-5</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="33"/>
+        <v>1.6254382399135063E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0.99977864583333198</v>
+      </c>
+      <c r="G128">
+        <v>3.6402529761904598E-2</v>
+      </c>
+      <c r="H128">
+        <v>0.999588707010582</v>
+      </c>
+      <c r="I128">
+        <v>3.5200892857142799E-2</v>
+      </c>
+      <c r="J128">
+        <v>0.99903197207982797</v>
+      </c>
+      <c r="K128">
+        <v>0.51543794693838996</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0.51643798506511795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0.99942584325396799</v>
+      </c>
+      <c r="G129">
+        <v>3.9057539682539603E-2</v>
+      </c>
+      <c r="H129">
+        <v>0.998627025462962</v>
+      </c>
+      <c r="I129">
+        <v>3.6377728174602997E-2</v>
+      </c>
+      <c r="J129">
+        <v>0.99803494075054799</v>
+      </c>
+      <c r="K129">
+        <v>0.51602084922268199</v>
+      </c>
+      <c r="L129">
+        <v>0.99997464503042599</v>
+      </c>
+      <c r="M129">
+        <v>0.52886713459431001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>0.99991712136243205</v>
+      </c>
+      <c r="G130">
+        <v>3.1205357142857E-2</v>
+      </c>
+      <c r="H130">
+        <v>0.99973193617724798</v>
+      </c>
+      <c r="I130">
+        <v>2.9454365079365E-2</v>
+      </c>
+      <c r="J130">
+        <v>0.99954149907211798</v>
+      </c>
+      <c r="K130">
+        <v>0.52318659158884795</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0.52873135466962595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>0.99959904100528996</v>
+      </c>
+      <c r="G131">
+        <v>3.5363343253968199E-2</v>
+      </c>
+      <c r="H131">
+        <v>0.99913277116401999</v>
+      </c>
+      <c r="I131">
+        <v>3.8009672619047599E-2</v>
+      </c>
+      <c r="J131">
+        <v>0.99895799589007395</v>
+      </c>
+      <c r="K131">
+        <v>0.53275529658573195</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0.55505329196148201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <v>0.99953579695767003</v>
+      </c>
+      <c r="G132">
+        <v>3.0725446428571401E-2</v>
+      </c>
+      <c r="H132">
+        <v>0.99826967592592597</v>
+      </c>
+      <c r="I132">
+        <v>3.3070436507936403E-2</v>
+      </c>
+      <c r="J132">
+        <v>0.99746034351947199</v>
+      </c>
+      <c r="K132">
+        <v>0.52656513522363801</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0.53238132251803205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>0.99926607969576597</v>
+      </c>
+      <c r="G133">
+        <v>2.9071180555555399E-2</v>
+      </c>
+      <c r="H133">
+        <v>0.99788049768518405</v>
+      </c>
+      <c r="I133">
+        <v>2.92175099206348E-2</v>
+      </c>
+      <c r="J133">
+        <v>0.99807368509933603</v>
+      </c>
+      <c r="K133">
+        <v>0.497720739240126</v>
+      </c>
+      <c r="L133">
+        <v>0.99997270742358002</v>
+      </c>
+      <c r="M133">
+        <v>0.50265304039337799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>0.999778439153438</v>
+      </c>
+      <c r="G134">
+        <v>3.7172619047619003E-2</v>
+      </c>
+      <c r="H134">
+        <v>0.99925078538359602</v>
+      </c>
+      <c r="I134">
+        <v>3.8539186507936397E-2</v>
+      </c>
+      <c r="J134">
+        <v>0.99886930576232202</v>
+      </c>
+      <c r="K134">
+        <v>0.52109401588394</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0.53002335680688195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>7</v>
+      </c>
+      <c r="F135">
+        <v>0.99958085317460199</v>
+      </c>
+      <c r="G135">
+        <v>4.0095486111111002E-2</v>
+      </c>
+      <c r="H135">
+        <v>0.99928054728835802</v>
+      </c>
+      <c r="I135">
+        <v>3.7276785714285603E-2</v>
+      </c>
+      <c r="J135">
+        <v>0.99860562966445199</v>
+      </c>
+      <c r="K135">
+        <v>0.50725884990643</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0.51616501956117999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ref="F136:M136" si="34">AVERAGE(F128:F135)</f>
+        <v>0.9996102275545623</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="34"/>
+        <v>3.4886687748015774E-2</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="34"/>
+        <v>0.9989702432622346</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="34"/>
+        <v>3.4643322172618944E-2</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="34"/>
+        <v>0.9985719214797687</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="34"/>
+        <v>0.51750492807372328</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="34"/>
+        <v>0.99999341905675065</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="34"/>
+        <v>0.52628906319625102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137">
+        <f>_xlfn.STDEV.S(F128:F136)</f>
+        <v>1.9678887601469577E-4</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ref="G137:M137" si="35">_xlfn.STDEV.S(G128:G136)</f>
+        <v>3.8237137360935484E-3</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="35"/>
+        <v>6.0829883356044209E-4</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="35"/>
+        <v>3.456930309974997E-3</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="35"/>
+        <v>6.2874356078970088E-4</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="35"/>
+        <v>1.0384454075826688E-2</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="35"/>
+        <v>1.1408816203602811E-5</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="35"/>
+        <v>1.4358160756411413E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.99922846395502596</v>
+      </c>
+      <c r="G139">
+        <v>3.7992311507936402E-2</v>
+      </c>
+      <c r="H139">
+        <v>0.99883432539682404</v>
+      </c>
+      <c r="I139">
+        <v>3.9897073412698401E-2</v>
+      </c>
+      <c r="J139">
+        <v>0.99889056554479205</v>
+      </c>
+      <c r="K139">
+        <v>0.52647369773238994</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0.54009224511912801</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0.99860553075396796</v>
+      </c>
+      <c r="G140">
+        <v>3.24640376984126E-2</v>
+      </c>
+      <c r="H140">
+        <v>0.99812789351851805</v>
+      </c>
+      <c r="I140">
+        <v>3.9288194444444403E-2</v>
+      </c>
+      <c r="J140">
+        <v>0.99799823298532397</v>
+      </c>
+      <c r="K140">
+        <v>0.50833226576099999</v>
+      </c>
+      <c r="L140">
+        <v>0.99997264770240601</v>
+      </c>
+      <c r="M140">
+        <v>0.50930179816631405</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>0.99997209821428401</v>
+      </c>
+      <c r="G141">
+        <v>3.0673363095238E-2</v>
+      </c>
+      <c r="H141">
+        <v>0.99983444940476196</v>
+      </c>
+      <c r="I141">
+        <v>3.49491567460316E-2</v>
+      </c>
+      <c r="J141">
+        <v>0.99967099878219801</v>
+      </c>
+      <c r="K141">
+        <v>0.517820960552276</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0.52508718359637996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>0.99949983465608405</v>
+      </c>
+      <c r="G142">
+        <v>4.2000248015873001E-2</v>
+      </c>
+      <c r="H142">
+        <v>0.99931402943121606</v>
+      </c>
+      <c r="I142">
+        <v>4.1836557539682399E-2</v>
+      </c>
+      <c r="J142">
+        <v>0.998479000660486</v>
+      </c>
+      <c r="K142">
+        <v>0.54569952696407198</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>0.55795076183557002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>0.99905361276454996</v>
+      </c>
+      <c r="G143">
+        <v>3.2425595238095198E-2</v>
+      </c>
+      <c r="H143">
+        <v>0.99815662202380795</v>
+      </c>
+      <c r="I143">
+        <v>3.00558035714284E-2</v>
+      </c>
+      <c r="J143">
+        <v>0.99771835142237597</v>
+      </c>
+      <c r="K143">
+        <v>0.52639831781846402</v>
+      </c>
+      <c r="L143">
+        <v>0.99997264770240601</v>
+      </c>
+      <c r="M143">
+        <v>0.52552948540597999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>0.998678695436506</v>
+      </c>
+      <c r="G144">
+        <v>3.1538938492063399E-2</v>
+      </c>
+      <c r="H144">
+        <v>0.99831576554232604</v>
+      </c>
+      <c r="I144">
+        <v>3.1639384920634797E-2</v>
+      </c>
+      <c r="J144">
+        <v>0.99828357947505797</v>
+      </c>
+      <c r="K144">
+        <v>0.50858981744745801</v>
+      </c>
+      <c r="L144">
+        <v>0.99997178329571001</v>
+      </c>
+      <c r="M144">
+        <v>0.51086274154391798</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="F145">
+        <v>0.99969948743386206</v>
+      </c>
+      <c r="G145">
+        <v>3.9130704365079198E-2</v>
+      </c>
+      <c r="H145">
+        <v>0.99940558862433804</v>
+      </c>
+      <c r="I145">
+        <v>3.83581349206348E-2</v>
+      </c>
+      <c r="J145">
+        <v>0.99867186327562596</v>
+      </c>
+      <c r="K145">
+        <v>0.52407261620350198</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0.53038951980363802</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="F146">
+        <v>0.99952690972222202</v>
+      </c>
+      <c r="G146">
+        <v>3.10540674603174E-2</v>
+      </c>
+      <c r="H146">
+        <v>0.99928096064814798</v>
+      </c>
+      <c r="I146">
+        <v>3.1716269841269802E-2</v>
+      </c>
+      <c r="J146">
+        <v>0.99859381327116803</v>
+      </c>
+      <c r="K146">
+        <v>0.51649025961852202</v>
+      </c>
+      <c r="L146">
+        <v>0.99997240618101402</v>
+      </c>
+      <c r="M146">
+        <v>0.52695460499624203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ref="F147:M147" si="36">AVERAGE(F139:F146)</f>
+        <v>0.99928307911706271</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="36"/>
+        <v>3.4659908234126902E-2</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="36"/>
+        <v>0.99890870432374257</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="36"/>
+        <v>3.5967571924603071E-2</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="36"/>
+        <v>0.99853830067712857</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="36"/>
+        <v>0.52173468276221047</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="36"/>
+        <v>0.99998618561019192</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="36"/>
+        <v>0.5282710425583963</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <f>_xlfn.STDEV.S(F139:F147)</f>
+        <v>4.5201888385049246E-4</v>
+      </c>
+      <c r="G148">
+        <f t="shared" ref="G148:M148" si="37">_xlfn.STDEV.S(G139:G147)</f>
+        <v>4.0838493126968281E-3</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="37"/>
+        <v>6.0613149354385595E-4</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="37"/>
+        <v>4.1746294167093606E-3</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="37"/>
+        <v>5.5457251835206518E-4</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="37"/>
+        <v>1.128727661176963E-2</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="37"/>
+        <v>1.3816650681434265E-5</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="37"/>
+        <v>1.4608994620500724E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>3.3593749999999999E-2</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>2.5781249999999999E-2</v>
+      </c>
+      <c r="J150">
+        <v>0.99955547652915999</v>
+      </c>
+      <c r="K150">
+        <v>0.507989166762844</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0.49934677178909997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="H151">
+        <v>0.99977678571428397</v>
+      </c>
+      <c r="I151">
+        <v>4.1796874999999997E-2</v>
+      </c>
+      <c r="J151">
+        <v>0.99748214238125998</v>
+      </c>
+      <c r="K151">
+        <v>0.51435278290726405</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0.52993863850578005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>4.296875E-2</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="J152">
+        <v>0.99903320717603195</v>
+      </c>
+      <c r="K152">
+        <v>0.50458068243022203</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0.48396706147690599</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>2.6953125000000001E-2</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>3.7890624999999997E-2</v>
+      </c>
+      <c r="J153">
+        <v>0.998807981950806</v>
+      </c>
+      <c r="K153">
+        <v>0.494399964173734</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0.49921419657798999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>3.8281250000000003E-2</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>3.3593749999999999E-2</v>
+      </c>
+      <c r="J154">
+        <v>0.99758692107299396</v>
+      </c>
+      <c r="K154">
+        <v>0.55022373381806799</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0.56207225484255596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>2.4218750000000001E-2</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>2.6171875000000001E-2</v>
+      </c>
+      <c r="J155">
+        <v>0.99795981482682605</v>
+      </c>
+      <c r="K155">
+        <v>0.49881719227883797</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0.50400379542000795</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>4.25781249999998E-2</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>3.2421875000000003E-2</v>
+      </c>
+      <c r="J156">
+        <v>0.99935518798644596</v>
+      </c>
+      <c r="K156">
+        <v>0.53069378522515198</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0.53093501139707999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>7</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>3.1640624999999999E-2</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>3.1640624999999999E-2</v>
+      </c>
+      <c r="J157">
+        <v>0.99823689578119601</v>
+      </c>
+      <c r="K157">
+        <v>0.50330158260719005</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0.50305804215476801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>3</v>
+      </c>
+      <c r="F158">
+        <f t="shared" ref="F158" si="38">AVERAGE(F150:F157)</f>
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <f t="shared" ref="G158" si="39">AVERAGE(G150:G157)</f>
+        <v>3.4130859374999975E-2</v>
+      </c>
+      <c r="H158">
+        <f t="shared" ref="H158" si="40">AVERAGE(H150:H157)</f>
+        <v>0.99997209821428545</v>
+      </c>
+      <c r="I158">
+        <f t="shared" ref="I158" si="41">AVERAGE(I150:I157)</f>
+        <v>3.2373046874999999E-2</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ref="J158" si="42">AVERAGE(J150:J157)</f>
+        <v>0.99850220346309004</v>
+      </c>
+      <c r="K158">
+        <f t="shared" ref="K158" si="43">AVERAGE(K150:K157)</f>
+        <v>0.51304486127541404</v>
+      </c>
+      <c r="L158">
+        <f t="shared" ref="L158" si="44">AVERAGE(L150:L157)</f>
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <f t="shared" ref="M158" si="45">AVERAGE(M150:M157)</f>
+        <v>0.51406697152052361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159">
+        <f>_xlfn.STDEV.S(F150:F158)</f>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" ref="G159:M159" si="46">_xlfn.STDEV.S(G150:G158)</f>
+        <v>6.3707138313111086E-3</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="46"/>
+        <v>7.3821186135192732E-5</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="46"/>
+        <v>5.1283480245292784E-3</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="46"/>
+        <v>7.4626337832276574E-4</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="46"/>
+        <v>1.7455859839408037E-2</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="46"/>
+        <v>2.3469942576269734E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0.96501116071428505</v>
+      </c>
+      <c r="G161">
+        <v>3.6328125000000003E-2</v>
+      </c>
+      <c r="H161">
+        <v>0.93082217261904698</v>
+      </c>
+      <c r="I161">
+        <v>3.5546874999999999E-2</v>
+      </c>
+      <c r="J161">
+        <v>0.972839332467478</v>
+      </c>
+      <c r="K161">
+        <v>0.53539604853136302</v>
+      </c>
+      <c r="L161">
+        <v>0.99967907573812498</v>
+      </c>
+      <c r="M161">
+        <v>0.53502379200569306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0.95734747023809497</v>
+      </c>
+      <c r="G162">
+        <v>4.4140625000000003E-2</v>
+      </c>
+      <c r="H162">
+        <v>0.91467633928571401</v>
+      </c>
+      <c r="I162">
+        <v>3.3593749999999999E-2</v>
+      </c>
+      <c r="J162">
+        <v>0.96062579539689197</v>
+      </c>
+      <c r="K162">
+        <v>0.50513202218823905</v>
+      </c>
+      <c r="L162">
+        <v>0.99809029448603503</v>
+      </c>
+      <c r="M162">
+        <v>0.51636430742300898</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>0.98130580357142805</v>
+      </c>
+      <c r="G163">
+        <v>5.3515624999999997E-2</v>
+      </c>
+      <c r="H163">
+        <v>0.94927455357142798</v>
+      </c>
+      <c r="I163">
+        <v>4.2578125000000001E-2</v>
+      </c>
+      <c r="J163">
+        <v>0.97662287552663996</v>
+      </c>
+      <c r="K163">
+        <v>0.53163499408505899</v>
+      </c>
+      <c r="L163">
+        <v>0.99925155195101301</v>
+      </c>
+      <c r="M163">
+        <v>0.54752499422932599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>0.980264136904761</v>
+      </c>
+      <c r="G164">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H164">
+        <v>0.93908110119047605</v>
+      </c>
+      <c r="I164">
+        <v>1.6015624999999999E-2</v>
+      </c>
+      <c r="J164">
+        <v>0.97608198866947504</v>
+      </c>
+      <c r="K164">
+        <v>0.52141558226094897</v>
+      </c>
+      <c r="L164">
+        <v>0.99924945582407698</v>
+      </c>
+      <c r="M164">
+        <v>0.53138853222921101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>0.92027529761904703</v>
+      </c>
+      <c r="G165">
+        <v>3.5937499999999997E-2</v>
+      </c>
+      <c r="H165">
+        <v>0.79739583333333297</v>
+      </c>
+      <c r="I165">
+        <v>3.4374999999999899E-2</v>
+      </c>
+      <c r="J165">
+        <v>0.95157555396832305</v>
+      </c>
+      <c r="K165">
+        <v>0.50093153095966303</v>
+      </c>
+      <c r="L165">
+        <v>0.99354037787857596</v>
+      </c>
+      <c r="M165">
+        <v>0.52273115153788396</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>0.93376116071428505</v>
+      </c>
+      <c r="G166">
+        <v>2.6562499999999999E-2</v>
+      </c>
+      <c r="H166">
+        <v>0.84153645833333302</v>
+      </c>
+      <c r="I166">
+        <v>2.7734374999999999E-2</v>
+      </c>
+      <c r="J166">
+        <v>0.95679519664499002</v>
+      </c>
+      <c r="K166">
+        <v>0.50362208941658404</v>
+      </c>
+      <c r="L166">
+        <v>0.99650601472153599</v>
+      </c>
+      <c r="M166">
+        <v>0.50866957123896295</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167">
+        <v>0.98078497023809497</v>
+      </c>
+      <c r="G167">
+        <v>2.6171875000000001E-2</v>
+      </c>
+      <c r="H167">
+        <v>0.92987351190476097</v>
+      </c>
+      <c r="I167">
+        <v>2.734375E-2</v>
+      </c>
+      <c r="J167">
+        <v>0.97933354288317398</v>
+      </c>
+      <c r="K167">
+        <v>0.52078196231750196</v>
+      </c>
+      <c r="L167">
+        <v>0.99945461479786402</v>
+      </c>
+      <c r="M167">
+        <v>0.53370507891395902</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <v>0.98560267857142803</v>
+      </c>
+      <c r="G168">
+        <v>4.6484374999999897E-2</v>
+      </c>
+      <c r="H168">
+        <v>0.96305803571428505</v>
+      </c>
+      <c r="I168">
+        <v>4.1015625E-2</v>
+      </c>
+      <c r="J168">
+        <v>0.982662767556304</v>
+      </c>
+      <c r="K168">
+        <v>0.50102450492430795</v>
+      </c>
+      <c r="L168">
+        <v>0.99966512565196697</v>
+      </c>
+      <c r="M168">
+        <v>0.51195473147132897</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <f t="shared" ref="F169" si="47">AVERAGE(F161:F168)</f>
+        <v>0.96304408482142811</v>
+      </c>
+      <c r="G169">
+        <f t="shared" ref="G169" si="48">AVERAGE(G161:G168)</f>
+        <v>3.7548828124999989E-2</v>
+      </c>
+      <c r="H169">
+        <f t="shared" ref="H169" si="49">AVERAGE(H161:H168)</f>
+        <v>0.90821475074404712</v>
+      </c>
+      <c r="I169">
+        <f t="shared" ref="I169" si="50">AVERAGE(I161:I168)</f>
+        <v>3.227539062499999E-2</v>
+      </c>
+      <c r="J169">
+        <f t="shared" ref="J169" si="51">AVERAGE(J161:J168)</f>
+        <v>0.96956713163915942</v>
+      </c>
+      <c r="K169">
+        <f t="shared" ref="K169" si="52">AVERAGE(K161:K168)</f>
+        <v>0.51499234183545839</v>
+      </c>
+      <c r="L169">
+        <f t="shared" ref="L169" si="53">AVERAGE(L161:L168)</f>
+        <v>0.99817956388114926</v>
+      </c>
+      <c r="M169">
+        <f t="shared" ref="M169" si="54">AVERAGE(M161:M168)</f>
+        <v>0.5259202698811718</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170">
+        <f>_xlfn.STDEV.S(F161:F169)</f>
+        <v>2.2849040847233045E-2</v>
+      </c>
+      <c r="G170">
+        <f t="shared" ref="G170:M170" si="55">_xlfn.STDEV.S(G161:G169)</f>
+        <v>9.1660418441985771E-3</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="55"/>
+        <v>5.4077723723193236E-2</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="55"/>
+        <v>7.9742472517584581E-3</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="55"/>
+        <v>1.0820000781145731E-2</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="55"/>
+        <v>1.3169008399453591E-2</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="55"/>
+        <v>2.0219357741045811E-3</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="55"/>
+        <v>1.2421016137205408E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0.79652157738095197</v>
+      </c>
+      <c r="G172">
+        <v>3.1640624999999999E-2</v>
+      </c>
+      <c r="H172">
+        <v>0.641164434523809</v>
+      </c>
+      <c r="I172">
+        <v>4.296875E-2</v>
+      </c>
+      <c r="J172">
+        <v>0.92625714694434302</v>
+      </c>
+      <c r="K172">
+        <v>0.51449136322542099</v>
+      </c>
+      <c r="L172">
+        <v>0.98038389166361195</v>
+      </c>
+      <c r="M172">
+        <v>0.52191002077442405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0.78305431547618998</v>
+      </c>
+      <c r="G173">
+        <v>2.8906250000000001E-2</v>
+      </c>
+      <c r="H173">
+        <v>0.60757068452380902</v>
+      </c>
+      <c r="I173">
+        <v>2.0703124999999999E-2</v>
+      </c>
+      <c r="J173">
+        <v>0.90902022375950697</v>
+      </c>
+      <c r="K173">
+        <v>0.48101913098466897</v>
+      </c>
+      <c r="L173">
+        <v>0.97610826159362396</v>
+      </c>
+      <c r="M173">
+        <v>0.49148685608902198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>33</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>0.804482886904761</v>
+      </c>
+      <c r="G174">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="H174">
+        <v>0.67384672619047603</v>
+      </c>
+      <c r="I174">
+        <v>4.6484374999999897E-2</v>
+      </c>
+      <c r="J174">
+        <v>0.93783004665657999</v>
+      </c>
+      <c r="K174">
+        <v>0.55054313458172199</v>
+      </c>
+      <c r="L174">
+        <v>0.98926669183275995</v>
+      </c>
+      <c r="M174">
+        <v>0.56581861811606704</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>0.78210565476190397</v>
+      </c>
+      <c r="G175">
+        <v>2.5781249999999999E-2</v>
+      </c>
+      <c r="H175">
+        <v>0.63911830357142796</v>
+      </c>
+      <c r="I175">
+        <v>2.9687499999999999E-2</v>
+      </c>
+      <c r="J175">
+        <v>0.92379653276092399</v>
+      </c>
+      <c r="K175">
+        <v>0.51678331842575997</v>
+      </c>
+      <c r="L175">
+        <v>0.98362507146315803</v>
+      </c>
+      <c r="M175">
+        <v>0.50006479985380903</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <v>0.64960937500000004</v>
+      </c>
+      <c r="G176">
+        <v>3.2421875000000003E-2</v>
+      </c>
+      <c r="H176">
+        <v>0.45522693452380902</v>
+      </c>
+      <c r="I176">
+        <v>3.4375000000000003E-2</v>
+      </c>
+      <c r="J176">
+        <v>0.88451630126805902</v>
+      </c>
+      <c r="K176">
+        <v>0.50091378613884197</v>
+      </c>
+      <c r="L176">
+        <v>0.96942975039559298</v>
+      </c>
+      <c r="M176">
+        <v>0.50378301306095696</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>0.70219494047619002</v>
+      </c>
+      <c r="G177">
+        <v>2.5390625E-2</v>
+      </c>
+      <c r="H177">
+        <v>0.49620535714285702</v>
+      </c>
+      <c r="I177">
+        <v>3.0078125000000001E-2</v>
+      </c>
+      <c r="J177">
+        <v>0.90488407318129005</v>
+      </c>
+      <c r="K177">
+        <v>0.50576897830226697</v>
+      </c>
+      <c r="L177">
+        <v>0.970347526532504</v>
+      </c>
+      <c r="M177">
+        <v>0.515303441244926</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178">
+        <v>0.77674851190476102</v>
+      </c>
+      <c r="G178">
+        <v>3.3203125E-2</v>
+      </c>
+      <c r="H178">
+        <v>0.60396205357142796</v>
+      </c>
+      <c r="I178">
+        <v>2.3828124999999999E-2</v>
+      </c>
+      <c r="J178">
+        <v>0.93585680995501197</v>
+      </c>
+      <c r="K178">
+        <v>0.506674030286417</v>
+      </c>
+      <c r="L178">
+        <v>0.98580040057079998</v>
+      </c>
+      <c r="M178">
+        <v>0.49457470737876702</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <v>0.83692336309523796</v>
+      </c>
+      <c r="G179">
+        <v>3.3203125E-2</v>
+      </c>
+      <c r="H179">
+        <v>0.70431547619047596</v>
+      </c>
+      <c r="I179">
+        <v>2.1484375E-2</v>
+      </c>
+      <c r="J179">
+        <v>0.94375871322569904</v>
+      </c>
+      <c r="K179">
+        <v>0.50422185474253101</v>
+      </c>
+      <c r="L179">
+        <v>0.98936267370512798</v>
+      </c>
+      <c r="M179">
+        <v>0.50943219578933197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <f t="shared" ref="F180" si="56">AVERAGE(F172:F179)</f>
+        <v>0.76645507812499947</v>
+      </c>
+      <c r="G180">
+        <f t="shared" ref="G180" si="57">AVERAGE(G172:G179)</f>
+        <v>3.0419921874999999E-2</v>
+      </c>
+      <c r="H180">
+        <f t="shared" ref="H180" si="58">AVERAGE(H172:H179)</f>
+        <v>0.60267624627976146</v>
+      </c>
+      <c r="I180">
+        <f t="shared" ref="I180" si="59">AVERAGE(I172:I179)</f>
+        <v>3.1201171874999992E-2</v>
+      </c>
+      <c r="J180">
+        <f t="shared" ref="J180" si="60">AVERAGE(J172:J179)</f>
+        <v>0.92073998096892673</v>
+      </c>
+      <c r="K180">
+        <f>AVERAGE(K172:K179)</f>
+        <v>0.51005194958595357</v>
+      </c>
+      <c r="L180">
+        <f>AVERAGE(L172:L179)</f>
+        <v>0.98054053346964731</v>
+      </c>
+      <c r="M180">
+        <f t="shared" ref="M180" si="61">AVERAGE(M172:M179)</f>
+        <v>0.51279670653841303</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181">
+        <f>_xlfn.STDEV.S(F172:F180)</f>
+        <v>5.6706041832916262E-2</v>
+      </c>
+      <c r="G181">
+        <f t="shared" ref="G181:M181" si="62">_xlfn.STDEV.S(G172:G180)</f>
+        <v>3.078496145732054E-3</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="62"/>
+        <v>8.008440316202832E-2</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="62"/>
+        <v>8.976808762056615E-3</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="62"/>
+        <v>1.8678697825524775E-2</v>
+      </c>
+      <c r="K181">
+        <f>_xlfn.STDEV.S(K172:K180)</f>
+        <v>1.8353169198727436E-2</v>
+      </c>
+      <c r="L181">
+        <f>_xlfn.STDEV.S(L172:L180)</f>
+        <v>7.4007857373857297E-3</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="62"/>
+        <v>2.2196504095980157E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C183" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27">
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>42</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="B194" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>36</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>44</v>
+      </c>
+      <c r="B195" t="s">
+        <v>39</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>37</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CLIP Final Model Results.xlsx
+++ b/CLIP Final Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\CMPUT624_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D42C8-001D-4B10-A0E4-B8EA522E98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BE0B5-13CE-4A02-AA86-D3A234A8E174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
   <si>
     <t>Text Format</t>
   </si>
@@ -213,6 +213,42 @@
   </si>
   <si>
     <t>slurm-42842735</t>
+  </si>
+  <si>
+    <t>slurm-42866367</t>
+  </si>
+  <si>
+    <t>slurm-42866368</t>
+  </si>
+  <si>
+    <t>slurm-42866438</t>
+  </si>
+  <si>
+    <t>slurm-42866442</t>
+  </si>
+  <si>
+    <t>slurm-42866444</t>
+  </si>
+  <si>
+    <t>slurm-42866446</t>
+  </si>
+  <si>
+    <t>slurm-42866448</t>
+  </si>
+  <si>
+    <t>slurm-42866449</t>
+  </si>
+  <si>
+    <t>slurm-42866459</t>
+  </si>
+  <si>
+    <t>slurm-42866470</t>
+  </si>
+  <si>
+    <t>slurm-42866495</t>
+  </si>
+  <si>
+    <t>slurm-42866518</t>
   </si>
 </sst>
 </file>
@@ -539,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M321"/>
+  <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="K363" sqref="K363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,35 +1869,35 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <f>AVERAGE(F36:F43)</f>
+        <f t="shared" ref="F44:M44" si="6">AVERAGE(F36:F43)</f>
         <v>0.52936883223684161</v>
       </c>
       <c r="G44">
-        <f>AVERAGE(G36:G43)</f>
+        <f t="shared" si="6"/>
         <v>0.11859580592105212</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(H36:H43)</f>
+        <f t="shared" si="6"/>
         <v>0.51347068843984911</v>
       </c>
       <c r="I44">
-        <f>AVERAGE(I36:I43)</f>
+        <f t="shared" si="6"/>
         <v>0.10885074013157868</v>
       </c>
       <c r="J44">
-        <f>AVERAGE(J36:J43)</f>
+        <f t="shared" si="6"/>
         <v>0.93518030794165286</v>
       </c>
       <c r="K44">
-        <f>AVERAGE(K36:K43)</f>
+        <f t="shared" si="6"/>
         <v>0.72018841166936731</v>
       </c>
       <c r="L44">
-        <f>AVERAGE(L36:L43)</f>
+        <f t="shared" si="6"/>
         <v>0.98274918962722824</v>
       </c>
       <c r="M44">
-        <f>AVERAGE(M36:M43)</f>
+        <f t="shared" si="6"/>
         <v>0.7792848460291727</v>
       </c>
     </row>
@@ -1874,31 +1910,31 @@
         <v>1.4215218812986893E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:M45" si="6">_xlfn.STDEV.S(G36:G44)</f>
+        <f t="shared" ref="G45:M45" si="7">_xlfn.STDEV.S(G36:G44)</f>
         <v>2.4153964228238758E-2</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3214585703514185E-2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6136704795223532E-2</v>
       </c>
       <c r="J45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6183141808617727E-3</v>
       </c>
       <c r="K45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8369317843938241E-2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6966900663722905E-3</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.802384286669029E-2</v>
       </c>
     </row>
@@ -2157,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:M55" si="7">AVERAGE(F47:F54)</f>
+        <f t="shared" ref="F55:M55" si="8">AVERAGE(F47:F54)</f>
         <v>3.1449718045112741E-2</v>
       </c>
       <c r="G55">
@@ -2165,19 +2201,19 @@
         <v>3.2781661184210463E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1712582236842063E-2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0612664473684163E-2</v>
       </c>
       <c r="J55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50215472331558175</v>
       </c>
       <c r="K55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4981462722852506</v>
       </c>
       <c r="L55">
@@ -2185,7 +2221,7 @@
         <v>0.50303745079879558</v>
       </c>
       <c r="M55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50111426256077751</v>
       </c>
     </row>
@@ -2198,23 +2234,23 @@
         <v>6.2524948734658185E-4</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:M56" si="8">_xlfn.STDEV.S(G47:G55)</f>
+        <f t="shared" ref="G56:M56" si="9">_xlfn.STDEV.S(G47:G55)</f>
         <v>2.2978309552560915E-3</v>
       </c>
       <c r="H56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3514799022012055E-3</v>
       </c>
       <c r="I56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4134357203676243E-3</v>
       </c>
       <c r="J56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5014123690898951E-3</v>
       </c>
       <c r="K56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5509148534422107E-3</v>
       </c>
       <c r="L56">
@@ -2222,7 +2258,7 @@
         <v>4.5628896003168072E-3</v>
       </c>
       <c r="M56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3634612188767053E-2</v>
       </c>
     </row>
@@ -2481,27 +2517,27 @@
         <v>3</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:M66" si="9">AVERAGE(F58:F65)</f>
+        <f t="shared" ref="F66:M66" si="10">AVERAGE(F58:F65)</f>
         <v>3.1621534304511249E-2</v>
       </c>
       <c r="G66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2154605263157852E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1189790883458586E-2</v>
       </c>
       <c r="I66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0736019736842049E-2</v>
       </c>
       <c r="J66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50034730261634586</v>
       </c>
       <c r="K66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.49931118314424605</v>
       </c>
       <c r="L66">
@@ -2509,7 +2545,7 @@
         <v>0.49923448714980262</v>
       </c>
       <c r="M66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.49946312803889742</v>
       </c>
     </row>
@@ -2522,31 +2558,31 @@
         <v>4.3491604425700874E-4</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:M67" si="10">_xlfn.STDEV.S(G58:G66)</f>
+        <f t="shared" ref="G67:M67" si="11">_xlfn.STDEV.S(G58:G66)</f>
         <v>1.0587494399328739E-3</v>
       </c>
       <c r="H67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0481768583013907E-4</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6404910247368196E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2938338003885223E-3</v>
       </c>
       <c r="K67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7299161986597794E-3</v>
       </c>
       <c r="L67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2520894539408737E-3</v>
       </c>
       <c r="M67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7975146953367861E-3</v>
       </c>
     </row>
@@ -2805,27 +2841,27 @@
         <v>3</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:M77" si="11">AVERAGE(F69:F76)</f>
+        <f t="shared" ref="F77:M77" si="12">AVERAGE(F69:F76)</f>
         <v>0.94728177866541308</v>
       </c>
       <c r="G77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1332236842105179E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91378788768796926</v>
       </c>
       <c r="I77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9625822368420945E-2</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.96295657467532425</v>
       </c>
       <c r="K77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.62799310064935043</v>
       </c>
       <c r="L77">
@@ -2833,7 +2869,7 @@
         <v>0.97584647495361732</v>
       </c>
       <c r="M77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.65204951298701253</v>
       </c>
     </row>
@@ -2846,31 +2882,31 @@
         <v>9.8297424292798901E-3</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:M78" si="12">_xlfn.STDEV.S(G69:G77)</f>
+        <f t="shared" ref="G78:M78" si="13">_xlfn.STDEV.S(G69:G77)</f>
         <v>2.1644582178798673E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2798756098302493E-2</v>
       </c>
       <c r="I78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0478077989536894E-2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.2355338705579891E-3</v>
       </c>
       <c r="K78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8182813999061637E-2</v>
       </c>
       <c r="L78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6276230081609588E-3</v>
       </c>
       <c r="M78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.3280996300038425E-2</v>
       </c>
     </row>
@@ -2890,6 +2926,30 @@
       <c r="E80">
         <v>0</v>
       </c>
+      <c r="F80">
+        <v>0.74558270676691696</v>
+      </c>
+      <c r="G80">
+        <v>7.3108552631578894E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.70435855263157898</v>
+      </c>
+      <c r="I80">
+        <v>6.9078947368421004E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.96125927643784803</v>
+      </c>
+      <c r="K80">
+        <v>0.58003246753246696</v>
+      </c>
+      <c r="L80">
+        <v>0.99023654916512005</v>
+      </c>
+      <c r="M80">
+        <v>0.60438311688311697</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -2901,109 +2961,277 @@
       <c r="E81">
         <v>1</v>
       </c>
+      <c r="F81">
+        <v>0.74725093984962399</v>
+      </c>
+      <c r="G81">
+        <v>8.5279605263157796E-2</v>
+      </c>
+      <c r="H81">
+        <v>0.71389802631578902</v>
+      </c>
+      <c r="I81">
+        <v>9.0953947368420995E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.96543367346938702</v>
+      </c>
+      <c r="K81">
+        <v>0.69050324675324604</v>
+      </c>
+      <c r="L81">
+        <v>0.99278756957328296</v>
+      </c>
+      <c r="M81">
+        <v>0.74399350649350604</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>2</v>
       </c>
+      <c r="F82">
+        <v>0.74069548872180402</v>
+      </c>
+      <c r="G82">
+        <v>0.113980263157894</v>
+      </c>
+      <c r="H82">
+        <v>0.70622650375939799</v>
+      </c>
+      <c r="I82">
+        <v>0.11965460526315699</v>
+      </c>
+      <c r="J82">
+        <v>0.96588589981447104</v>
+      </c>
+      <c r="K82">
+        <v>0.72816558441558399</v>
+      </c>
+      <c r="L82">
+        <v>0.99167439703154003</v>
+      </c>
+      <c r="M82">
+        <v>0.78660714285714195</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>3</v>
       </c>
+      <c r="F83">
+        <v>0.79474859022556399</v>
+      </c>
+      <c r="G83">
+        <v>0.13223684210526301</v>
+      </c>
+      <c r="H83">
+        <v>0.759880169172932</v>
+      </c>
+      <c r="I83">
+        <v>0.12902960526315699</v>
+      </c>
+      <c r="J83">
+        <v>0.97089517625231903</v>
+      </c>
+      <c r="K83">
+        <v>0.701136363636363</v>
+      </c>
+      <c r="L83">
+        <v>0.993286178107606</v>
+      </c>
+      <c r="M83">
+        <v>0.76347402597402503</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>4</v>
       </c>
+      <c r="F84">
+        <v>0.76959586466165397</v>
+      </c>
+      <c r="G84">
+        <v>9.2351973684210498E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.733235432330827</v>
+      </c>
+      <c r="I84">
+        <v>8.0098684210526294E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.96668599257884902</v>
+      </c>
+      <c r="K84">
+        <v>0.70454545454545403</v>
+      </c>
+      <c r="L84">
+        <v>0.99147727272727204</v>
+      </c>
+      <c r="M84">
+        <v>0.74910714285714297</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>5</v>
       </c>
+      <c r="F85">
+        <v>0.77191024436090205</v>
+      </c>
+      <c r="G85">
+        <v>0.105427631578947</v>
+      </c>
+      <c r="H85">
+        <v>0.74386748120300705</v>
+      </c>
+      <c r="I85">
+        <v>9.9013157894736803E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.96012291280148399</v>
+      </c>
+      <c r="K85">
+        <v>0.72183441558441497</v>
+      </c>
+      <c r="L85">
+        <v>0.99291512059369202</v>
+      </c>
+      <c r="M85">
+        <v>0.785227272727272</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>6</v>
       </c>
+      <c r="F86">
+        <v>0.72631578947368403</v>
+      </c>
+      <c r="G86">
+        <v>0.143174342105263</v>
+      </c>
+      <c r="H86">
+        <v>0.70877584586466102</v>
+      </c>
+      <c r="I86">
+        <v>0.133470394736842</v>
+      </c>
+      <c r="J86">
+        <v>0.96016929499072301</v>
+      </c>
+      <c r="K86">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="L86">
+        <v>0.99096706864563999</v>
+      </c>
+      <c r="M86">
+        <v>0.81274350649350602</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>7</v>
       </c>
+      <c r="F87">
+        <v>0.757965225563909</v>
+      </c>
+      <c r="G87">
+        <v>0.172532894736842</v>
+      </c>
+      <c r="H87">
+        <v>0.73251879699248101</v>
+      </c>
+      <c r="I87">
+        <v>0.15699013157894701</v>
+      </c>
+      <c r="J87">
+        <v>0.96801948051947995</v>
+      </c>
+      <c r="K87">
+        <v>0.76209415584415496</v>
+      </c>
+      <c r="L87">
+        <v>0.99343692022263397</v>
+      </c>
+      <c r="M87">
+        <v>0.83936688311688301</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>3</v>
       </c>
-      <c r="F88" t="e">
-        <f t="shared" ref="F88:K88" si="13">AVERAGE(F80:F87)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G88" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J88" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K88" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L88" t="e">
+      <c r="F88">
+        <f t="shared" ref="F88:K88" si="14">AVERAGE(F80:F87)</f>
+        <v>0.75675810620300732</v>
+      </c>
+      <c r="G88">
+        <f>AVERAGE(G80:G87)</f>
+        <v>0.11476151315789453</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="14"/>
+        <v>0.72534510103383421</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="14"/>
+        <v>0.10978618421052601</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="14"/>
+        <v>0.9648089633580702</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="14"/>
+        <v>0.70400771103896054</v>
+      </c>
+      <c r="L88">
         <f>AVERAGE(L80:L87)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M88" t="e">
-        <f t="shared" ref="M88" si="14">AVERAGE(M80:M87)</f>
-        <v>#DIV/0!</v>
+        <v>0.99209763450834842</v>
+      </c>
+      <c r="M88">
+        <f>AVERAGE(M80:M87)</f>
+        <v>0.76061282467532421</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>27</v>
       </c>
-      <c r="F89" t="e">
+      <c r="F89">
         <f>_xlfn.STDEV.S(F80:F88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" t="e">
+        <v>2.0121963868000834E-2</v>
+      </c>
+      <c r="G89">
         <f t="shared" ref="G89:M89" si="15">_xlfn.STDEV.S(G80:G88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" t="e">
+        <v>3.0911728498635712E-2</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I89" t="e">
+        <v>1.8910977143681878E-2</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J89" t="e">
+        <v>2.798657600382598E-2</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K89" t="e">
+        <v>3.6828754220926312E-3</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L89" t="e">
+        <v>5.1739303490099836E-2</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M89" t="e">
+        <v>1.0986589854954222E-3</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>6.6168228647822819E-2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3022,6 +3250,30 @@
       <c r="E91">
         <v>0</v>
       </c>
+      <c r="F91">
+        <v>0.74541823308270605</v>
+      </c>
+      <c r="G91">
+        <v>0.123930921052631</v>
+      </c>
+      <c r="H91">
+        <v>0.706849154135338</v>
+      </c>
+      <c r="I91">
+        <v>0.133717105263157</v>
+      </c>
+      <c r="J91">
+        <v>0.96055194805194799</v>
+      </c>
+      <c r="K91">
+        <v>0.69163961038960997</v>
+      </c>
+      <c r="L91">
+        <v>0.99153525046382096</v>
+      </c>
+      <c r="M91">
+        <v>0.76241883116883102</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -3033,109 +3285,277 @@
       <c r="E92">
         <v>1</v>
       </c>
+      <c r="F92">
+        <v>0.75175046992481198</v>
+      </c>
+      <c r="G92">
+        <v>0.11735197368421001</v>
+      </c>
+      <c r="H92">
+        <v>0.72390742481202996</v>
+      </c>
+      <c r="I92">
+        <v>0.11184210526315699</v>
+      </c>
+      <c r="J92">
+        <v>0.96610621521335804</v>
+      </c>
+      <c r="K92">
+        <v>0.69991883116883102</v>
+      </c>
+      <c r="L92">
+        <v>0.99262523191094598</v>
+      </c>
+      <c r="M92">
+        <v>0.76493506493506502</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>2</v>
       </c>
+      <c r="F93">
+        <v>0.75078712406015002</v>
+      </c>
+      <c r="G93">
+        <v>0.14646381578947301</v>
+      </c>
+      <c r="H93">
+        <v>0.71829182330827002</v>
+      </c>
+      <c r="I93">
+        <v>0.14629934210526299</v>
+      </c>
+      <c r="J93">
+        <v>0.95934601113172502</v>
+      </c>
+      <c r="K93">
+        <v>0.75909090909090904</v>
+      </c>
+      <c r="L93">
+        <v>0.99168599257884904</v>
+      </c>
+      <c r="M93">
+        <v>0.83198051948051899</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>3</v>
       </c>
+      <c r="F94">
+        <v>0.75481672932330801</v>
+      </c>
+      <c r="G94">
+        <v>0.13840460526315701</v>
+      </c>
+      <c r="H94">
+        <v>0.72393092105263102</v>
+      </c>
+      <c r="I94">
+        <v>0.112828947368421</v>
+      </c>
+      <c r="J94">
+        <v>0.964981447124304</v>
+      </c>
+      <c r="K94">
+        <v>0.74821428571428505</v>
+      </c>
+      <c r="L94">
+        <v>0.99243970315398899</v>
+      </c>
+      <c r="M94">
+        <v>0.79959415584415505</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>4</v>
       </c>
+      <c r="F95">
+        <v>0.69125939849623996</v>
+      </c>
+      <c r="G95">
+        <v>0.101480263157894</v>
+      </c>
+      <c r="H95">
+        <v>0.64479558270676696</v>
+      </c>
+      <c r="I95">
+        <v>7.8124999999999903E-2</v>
+      </c>
+      <c r="J95">
+        <v>0.95170454545454497</v>
+      </c>
+      <c r="K95">
+        <v>0.71525974025974004</v>
+      </c>
+      <c r="L95">
+        <v>0.98683905380333903</v>
+      </c>
+      <c r="M95">
+        <v>0.806006493506493</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>5</v>
       </c>
+      <c r="F96">
+        <v>0.72548167293233001</v>
+      </c>
+      <c r="G96">
+        <v>0.10254934210526299</v>
+      </c>
+      <c r="H96">
+        <v>0.68984962406015005</v>
+      </c>
+      <c r="I96">
+        <v>9.2845394736842099E-2</v>
+      </c>
+      <c r="J96">
+        <v>0.96029684601113097</v>
+      </c>
+      <c r="K96">
+        <v>0.712256493506493</v>
+      </c>
+      <c r="L96">
+        <v>0.99020176252319103</v>
+      </c>
+      <c r="M96">
+        <v>0.75446428571428503</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>6</v>
       </c>
+      <c r="F97">
+        <v>0.74884868421052597</v>
+      </c>
+      <c r="G97">
+        <v>9.7697368421052602E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.69976503759398501</v>
+      </c>
+      <c r="I97">
+        <v>8.9638157894736795E-2</v>
+      </c>
+      <c r="J97">
+        <v>0.96314935064935003</v>
+      </c>
+      <c r="K97">
+        <v>0.66120129870129796</v>
+      </c>
+      <c r="L97">
+        <v>0.99234693877550995</v>
+      </c>
+      <c r="M97">
+        <v>0.71915584415584399</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>7</v>
       </c>
+      <c r="F98">
+        <v>0.76010338345864603</v>
+      </c>
+      <c r="G98">
+        <v>0.141118421052631</v>
+      </c>
+      <c r="H98">
+        <v>0.74105968045112702</v>
+      </c>
+      <c r="I98">
+        <v>0.14942434210526301</v>
+      </c>
+      <c r="J98">
+        <v>0.963508812615955</v>
+      </c>
+      <c r="K98">
+        <v>0.73717532467532398</v>
+      </c>
+      <c r="L98">
+        <v>0.99274118738404404</v>
+      </c>
+      <c r="M98">
+        <v>0.80795454545454504</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>3</v>
       </c>
-      <c r="F99" t="e">
+      <c r="F99">
         <f t="shared" ref="F99:K99" si="16">AVERAGE(F91:F98)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G99" t="e">
+        <v>0.74105821193608978</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99" t="e">
+        <v>0.12112458881578897</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I99" t="e">
+        <v>0.70605615601503735</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J99" t="e">
+        <v>0.11434004934210497</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K99" t="e">
+        <v>0.96120564703153955</v>
+      </c>
+      <c r="K99">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L99" t="e">
+        <v>0.71559456168831115</v>
+      </c>
+      <c r="L99">
         <f>AVERAGE(L91:L98)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M99" t="e">
+        <v>0.9913018900742111</v>
+      </c>
+      <c r="M99">
         <f t="shared" ref="M99" si="17">AVERAGE(M91:M98)</f>
-        <v>#DIV/0!</v>
+        <v>0.7808137175324672</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>27</v>
       </c>
-      <c r="F100" t="e">
+      <c r="F100">
         <f>_xlfn.STDEV.S(F91:F99)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G100" t="e">
+        <v>2.1104629530755124E-2</v>
+      </c>
+      <c r="G100">
         <f t="shared" ref="G100:M100" si="18">_xlfn.STDEV.S(G91:G99)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" t="e">
+        <v>1.8173850793958696E-2</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" t="e">
+        <v>2.7542807221077548E-2</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J100" t="e">
+        <v>2.5050027093559288E-2</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K100" t="e">
+        <v>4.2180743357478874E-3</v>
+      </c>
+      <c r="K100">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L100" t="e">
+        <v>3.0023236929901873E-2</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M100" t="e">
+        <v>1.8553549448211391E-3</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.433026424572852E-2</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -3478,6 +3898,30 @@
       <c r="E113">
         <v>0</v>
       </c>
+      <c r="F113">
+        <v>0.77965225563909701</v>
+      </c>
+      <c r="G113">
+        <v>7.2121710526315705E-2</v>
+      </c>
+      <c r="H113">
+        <v>0.75381813909774398</v>
+      </c>
+      <c r="I113">
+        <v>6.2746710526315697E-2</v>
+      </c>
+      <c r="J113">
+        <v>0.96917537746806004</v>
+      </c>
+      <c r="K113">
+        <v>0.594878048780487</v>
+      </c>
+      <c r="L113">
+        <v>0.99211382113821101</v>
+      </c>
+      <c r="M113">
+        <v>0.63447154471544698</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -3489,109 +3933,277 @@
       <c r="E114">
         <v>1</v>
       </c>
+      <c r="F114">
+        <v>0.79613486842105197</v>
+      </c>
+      <c r="G114">
+        <v>9.2845394736842099E-2</v>
+      </c>
+      <c r="H114">
+        <v>0.76093749999999905</v>
+      </c>
+      <c r="I114">
+        <v>9.2927631578947303E-2</v>
+      </c>
+      <c r="J114">
+        <v>0.96963995354239196</v>
+      </c>
+      <c r="K114">
+        <v>0.67918699186991804</v>
+      </c>
+      <c r="L114">
+        <v>0.99324041811846597</v>
+      </c>
+      <c r="M114">
+        <v>0.73439024390243801</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>2</v>
       </c>
+      <c r="F115">
+        <v>0.77519971804511201</v>
+      </c>
+      <c r="G115">
+        <v>0.15904605263157801</v>
+      </c>
+      <c r="H115">
+        <v>0.74421992481203003</v>
+      </c>
+      <c r="I115">
+        <v>0.138569078947368</v>
+      </c>
+      <c r="J115">
+        <v>0.96814169570267095</v>
+      </c>
+      <c r="K115">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="L115">
+        <v>0.99170731707316995</v>
+      </c>
+      <c r="M115">
+        <v>0.84390243902438999</v>
+      </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E116">
         <v>3</v>
       </c>
+      <c r="F116">
+        <v>0.757965225563909</v>
+      </c>
+      <c r="G116">
+        <v>0.127713815789473</v>
+      </c>
+      <c r="H116">
+        <v>0.72908834586466098</v>
+      </c>
+      <c r="I116">
+        <v>0.13404605263157801</v>
+      </c>
+      <c r="J116">
+        <v>0.96542392566782798</v>
+      </c>
+      <c r="K116">
+        <v>0.71577235772357695</v>
+      </c>
+      <c r="L116">
+        <v>0.99173054587688703</v>
+      </c>
+      <c r="M116">
+        <v>0.78959349593495898</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E117">
         <v>4</v>
       </c>
+      <c r="F117">
+        <v>0.79351503759398501</v>
+      </c>
+      <c r="G117">
+        <v>8.6677631578947298E-2</v>
+      </c>
+      <c r="H117">
+        <v>0.75859962406015002</v>
+      </c>
+      <c r="I117">
+        <v>4.9753289473684202E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.97040650406504003</v>
+      </c>
+      <c r="K117">
+        <v>0.67276422764227595</v>
+      </c>
+      <c r="L117">
+        <v>0.99279907084785102</v>
+      </c>
+      <c r="M117">
+        <v>0.71845528455284502</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E118">
         <v>5</v>
       </c>
+      <c r="F118">
+        <v>0.781402725563909</v>
+      </c>
+      <c r="G118">
+        <v>0.14547697368421</v>
+      </c>
+      <c r="H118">
+        <v>0.75117481203007497</v>
+      </c>
+      <c r="I118">
+        <v>0.123355263157894</v>
+      </c>
+      <c r="J118">
+        <v>0.96420441347270602</v>
+      </c>
+      <c r="K118">
+        <v>0.73626016260162597</v>
+      </c>
+      <c r="L118">
+        <v>0.99229965156794397</v>
+      </c>
+      <c r="M118">
+        <v>0.78544715447154401</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E119">
         <v>6</v>
       </c>
+      <c r="F119">
+        <v>0.78820488721804505</v>
+      </c>
+      <c r="G119">
+        <v>0.117434210526315</v>
+      </c>
+      <c r="H119">
+        <v>0.75236137218045096</v>
+      </c>
+      <c r="I119">
+        <v>0.11677631578947301</v>
+      </c>
+      <c r="J119">
+        <v>0.97087108013937196</v>
+      </c>
+      <c r="K119">
+        <v>0.69772357723577205</v>
+      </c>
+      <c r="L119">
+        <v>0.99296167247386702</v>
+      </c>
+      <c r="M119">
+        <v>0.75487804878048703</v>
+      </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E120">
         <v>7</v>
       </c>
+      <c r="F120">
+        <v>0.73223684210526296</v>
+      </c>
+      <c r="G120">
+        <v>0.14605263157894699</v>
+      </c>
+      <c r="H120">
+        <v>0.72471804511278104</v>
+      </c>
+      <c r="I120">
+        <v>0.15057565789473601</v>
+      </c>
+      <c r="J120">
+        <v>0.96425087108013896</v>
+      </c>
+      <c r="K120">
+        <v>0.72219512195121904</v>
+      </c>
+      <c r="L120">
+        <v>0.99073170731707305</v>
+      </c>
+      <c r="M120">
+        <v>0.78243902439024304</v>
+      </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>3</v>
       </c>
-      <c r="F121" t="e">
+      <c r="F121">
         <f t="shared" ref="F121:K121" si="21">AVERAGE(F113:F120)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G121" t="e">
+        <v>0.7755389450187965</v>
+      </c>
+      <c r="G121">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H121" t="e">
+        <v>0.11842105263157851</v>
+      </c>
+      <c r="H121">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I121" t="e">
+        <v>0.74686472039473639</v>
+      </c>
+      <c r="I121">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J121" t="e">
+        <v>0.10859374999999953</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K121" t="e">
+        <v>0.96776422764227599</v>
+      </c>
+      <c r="K121">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L121" t="e">
+        <v>0.69818089430894259</v>
+      </c>
+      <c r="L121">
         <f>AVERAGE(L113:L120)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M121" t="e">
+        <v>0.99219802555168357</v>
+      </c>
+      <c r="M121">
         <f t="shared" ref="M121" si="22">AVERAGE(M113:M120)</f>
-        <v>#DIV/0!</v>
+        <v>0.75544715447154409</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>27</v>
       </c>
-      <c r="F122" t="e">
+      <c r="F122">
         <f>_xlfn.STDEV.S(F113:F121)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G122" t="e">
+        <v>1.982133985932636E-2</v>
+      </c>
+      <c r="G122">
         <f t="shared" ref="G122:M122" si="23">_xlfn.STDEV.S(G113:G121)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H122" t="e">
+        <v>2.9661918103929326E-2</v>
+      </c>
+      <c r="H122">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I122" t="e">
+        <v>1.2481791004423074E-2</v>
+      </c>
+      <c r="I122">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J122" t="e">
+        <v>3.4284208078715184E-2</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K122" t="e">
+        <v>2.5685427614453994E-3</v>
+      </c>
+      <c r="K122">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L122" t="e">
+        <v>4.8354080374556511E-2</v>
+      </c>
+      <c r="L122">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M122" t="e">
+        <v>7.6303946374860242E-4</v>
+      </c>
+      <c r="M122">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>5.816580288527938E-2</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -3610,120 +4222,312 @@
       <c r="E124">
         <v>0</v>
       </c>
+      <c r="F124">
+        <v>0.77172227443608998</v>
+      </c>
+      <c r="G124">
+        <v>8.4703947368421004E-2</v>
+      </c>
+      <c r="H124">
+        <v>0.73129699248120295</v>
+      </c>
+      <c r="I124">
+        <v>8.4703947368421004E-2</v>
+      </c>
+      <c r="J124">
+        <v>0.96293844367015102</v>
+      </c>
+      <c r="K124">
+        <v>0.60626016260162596</v>
+      </c>
+      <c r="L124">
+        <v>0.99046457607433203</v>
+      </c>
+      <c r="M124">
+        <v>0.65487804878048705</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
         <v>39</v>
       </c>
       <c r="E125">
         <v>1</v>
+      </c>
+      <c r="F125">
+        <v>0.754499530075188</v>
+      </c>
+      <c r="G125">
+        <v>0.10197368421052599</v>
+      </c>
+      <c r="H125">
+        <v>0.73439849624060105</v>
+      </c>
+      <c r="I125">
+        <v>9.0624999999999997E-2</v>
+      </c>
+      <c r="J125">
+        <v>0.96037166085946502</v>
+      </c>
+      <c r="K125">
+        <v>0.63959349593495896</v>
+      </c>
+      <c r="L125">
+        <v>0.99</v>
+      </c>
+      <c r="M125">
+        <v>0.69577235772357704</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>2</v>
       </c>
+      <c r="F126">
+        <v>0.74863721804511196</v>
+      </c>
+      <c r="G126">
+        <v>0.12968750000000001</v>
+      </c>
+      <c r="H126">
+        <v>0.73277725563909701</v>
+      </c>
+      <c r="I126">
+        <v>0.10978618421052599</v>
+      </c>
+      <c r="J126">
+        <v>0.96131242740998801</v>
+      </c>
+      <c r="K126">
+        <v>0.73430894308942996</v>
+      </c>
+      <c r="L126">
+        <v>0.99099883855981397</v>
+      </c>
+      <c r="M126">
+        <v>0.80821138211382104</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>3</v>
       </c>
+      <c r="F127">
+        <v>0.765108082706767</v>
+      </c>
+      <c r="G127">
+        <v>0.18906249999999999</v>
+      </c>
+      <c r="H127">
+        <v>0.73801691729323304</v>
+      </c>
+      <c r="I127">
+        <v>0.17861842105263101</v>
+      </c>
+      <c r="J127">
+        <v>0.96383275261323997</v>
+      </c>
+      <c r="K127">
+        <v>0.77040650406503997</v>
+      </c>
+      <c r="L127">
+        <v>0.99225319396051004</v>
+      </c>
+      <c r="M127">
+        <v>0.85203252032520305</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>4</v>
       </c>
+      <c r="F128">
+        <v>0.763815789473684</v>
+      </c>
+      <c r="G128">
+        <v>4.2351973684210502E-2</v>
+      </c>
+      <c r="H128">
+        <v>0.74535949248120303</v>
+      </c>
+      <c r="I128">
+        <v>4.22697368421052E-2</v>
+      </c>
+      <c r="J128">
+        <v>0.96781649245063806</v>
+      </c>
+      <c r="K128">
+        <v>0.63796747967479595</v>
+      </c>
+      <c r="L128">
+        <v>0.99209059233449504</v>
+      </c>
+      <c r="M128">
+        <v>0.68747967479674799</v>
+      </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E129">
         <v>5</v>
       </c>
+      <c r="F129">
+        <v>0.74847274436090205</v>
+      </c>
+      <c r="G129">
+        <v>0.14967105263157801</v>
+      </c>
+      <c r="H129">
+        <v>0.73527960526315705</v>
+      </c>
+      <c r="I129">
+        <v>0.13569078947368399</v>
+      </c>
+      <c r="J129">
+        <v>0.96673635307781602</v>
+      </c>
+      <c r="K129">
+        <v>0.74829268292682904</v>
+      </c>
+      <c r="L129">
+        <v>0.99183507549361205</v>
+      </c>
+      <c r="M129">
+        <v>0.80715447154471498</v>
+      </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E130">
         <v>6</v>
       </c>
+      <c r="F130">
+        <v>0.76486137218045103</v>
+      </c>
+      <c r="G130">
+        <v>0.13240131578947301</v>
+      </c>
+      <c r="H130">
+        <v>0.72518796992481205</v>
+      </c>
+      <c r="I130">
+        <v>0.12360197368421</v>
+      </c>
+      <c r="J130">
+        <v>0.96494773519163701</v>
+      </c>
+      <c r="K130">
+        <v>0.69016260162601595</v>
+      </c>
+      <c r="L130">
+        <v>0.99148664343786297</v>
+      </c>
+      <c r="M130">
+        <v>0.76365853658536498</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E131">
         <v>7</v>
       </c>
+      <c r="F131">
+        <v>0.73517387218045105</v>
+      </c>
+      <c r="G131">
+        <v>0.143174342105263</v>
+      </c>
+      <c r="H131">
+        <v>0.72051221804511201</v>
+      </c>
+      <c r="I131">
+        <v>0.14070723684210501</v>
+      </c>
+      <c r="J131">
+        <v>0.96125435540069704</v>
+      </c>
+      <c r="K131">
+        <v>0.71284552845528404</v>
+      </c>
+      <c r="L131">
+        <v>0.99022067363530797</v>
+      </c>
+      <c r="M131">
+        <v>0.76869918699187001</v>
+      </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>3</v>
       </c>
-      <c r="F132" t="e">
+      <c r="F132">
         <f t="shared" ref="F132:K132" si="24">AVERAGE(F124:F131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G132" t="e">
+        <v>0.75653636043233052</v>
+      </c>
+      <c r="G132">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H132" t="e">
+        <v>0.12162828947368394</v>
+      </c>
+      <c r="H132">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I132" t="e">
+        <v>0.73285361842105234</v>
+      </c>
+      <c r="I132">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J132" t="e">
+        <v>0.11325041118421028</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K132" t="e">
+        <v>0.96365127758420399</v>
+      </c>
+      <c r="K132">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L132" t="e">
+        <v>0.69247967479674732</v>
+      </c>
+      <c r="L132">
         <f>AVERAGE(L124:L131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M132" t="e">
+        <v>0.99116869918699191</v>
+      </c>
+      <c r="M132">
         <f t="shared" ref="M132" si="25">AVERAGE(M124:M131)</f>
-        <v>#DIV/0!</v>
+        <v>0.75473577235772327</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>27</v>
       </c>
-      <c r="F133" t="e">
+      <c r="F133">
         <f>_xlfn.STDEV.S(F124:F132)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G133" t="e">
+        <v>1.1260024708401572E-2</v>
+      </c>
+      <c r="G133">
         <f t="shared" ref="G133:M133" si="26">_xlfn.STDEV.S(G124:G132)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H133" t="e">
+        <v>4.1853099440569475E-2</v>
+      </c>
+      <c r="H133">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I133" t="e">
+        <v>7.113629932965505E-3</v>
+      </c>
+      <c r="I133">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J133" t="e">
+        <v>3.8753461522098166E-2</v>
+      </c>
+      <c r="J133">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K133" t="e">
+        <v>2.5263589249232029E-3</v>
+      </c>
+      <c r="K133">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L133" t="e">
+        <v>5.5407398784298581E-2</v>
+      </c>
+      <c r="L133">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M133" t="e">
+        <v>8.1856689133023494E-4</v>
+      </c>
+      <c r="M133">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>6.4537046125146838E-2</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -4066,120 +4870,312 @@
       <c r="E146">
         <v>0</v>
       </c>
+      <c r="F146">
+        <v>0.80554511278195395</v>
+      </c>
+      <c r="G146">
+        <v>9.67105263157894E-2</v>
+      </c>
+      <c r="H146">
+        <v>0.76621240601503704</v>
+      </c>
+      <c r="I146">
+        <v>9.4078947368420998E-2</v>
+      </c>
+      <c r="J146">
+        <v>0.96537569573283799</v>
+      </c>
+      <c r="K146">
+        <v>0.67370129870129802</v>
+      </c>
+      <c r="L146">
+        <v>0.99482838589981404</v>
+      </c>
+      <c r="M146">
+        <v>0.75032467532467495</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
       </c>
       <c r="E147">
         <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0.84570018796992397</v>
+      </c>
+      <c r="G147">
+        <v>0.11792763157894701</v>
+      </c>
+      <c r="H147">
+        <v>0.80632048872180395</v>
+      </c>
+      <c r="I147">
+        <v>0.119407894736842</v>
+      </c>
+      <c r="J147">
+        <v>0.97110389610389602</v>
+      </c>
+      <c r="K147">
+        <v>0.74886363636363595</v>
+      </c>
+      <c r="L147">
+        <v>0.99668367346938702</v>
+      </c>
+      <c r="M147">
+        <v>0.81201298701298597</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E148">
         <v>2</v>
       </c>
+      <c r="F148">
+        <v>0.81186560150375897</v>
+      </c>
+      <c r="G148">
+        <v>0.12878289473684201</v>
+      </c>
+      <c r="H148">
+        <v>0.78190789473684197</v>
+      </c>
+      <c r="I148">
+        <v>0.11562500000000001</v>
+      </c>
+      <c r="J148">
+        <v>0.96711502782931302</v>
+      </c>
+      <c r="K148">
+        <v>0.743506493506493</v>
+      </c>
+      <c r="L148">
+        <v>0.99545454545454504</v>
+      </c>
+      <c r="M148">
+        <v>0.83376623376623304</v>
+      </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E149">
         <v>3</v>
       </c>
+      <c r="F149">
+        <v>0.83376409774436</v>
+      </c>
+      <c r="G149">
+        <v>0.15937499999999999</v>
+      </c>
+      <c r="H149">
+        <v>0.79151785714285705</v>
+      </c>
+      <c r="I149">
+        <v>0.15953947368421001</v>
+      </c>
+      <c r="J149">
+        <v>0.969596474953617</v>
+      </c>
+      <c r="K149">
+        <v>0.76980519480519405</v>
+      </c>
+      <c r="L149">
+        <v>0.99654452690166895</v>
+      </c>
+      <c r="M149">
+        <v>0.83165584415584404</v>
+      </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E150">
         <v>4</v>
       </c>
+      <c r="F150">
+        <v>0.85509868421052604</v>
+      </c>
+      <c r="G150">
+        <v>8.9473684210526302E-2</v>
+      </c>
+      <c r="H150">
+        <v>0.82445958646616502</v>
+      </c>
+      <c r="I150">
+        <v>5.50986842105263E-2</v>
+      </c>
+      <c r="J150">
+        <v>0.97328385899814396</v>
+      </c>
+      <c r="K150">
+        <v>0.63019480519480497</v>
+      </c>
+      <c r="L150">
+        <v>0.99675324675324595</v>
+      </c>
+      <c r="M150">
+        <v>0.67840909090908996</v>
+      </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E151">
         <v>5</v>
       </c>
+      <c r="F151">
+        <v>0.82006578947368403</v>
+      </c>
+      <c r="G151">
+        <v>0.166776315789473</v>
+      </c>
+      <c r="H151">
+        <v>0.79443139097744297</v>
+      </c>
+      <c r="I151">
+        <v>0.14572368421052601</v>
+      </c>
+      <c r="J151">
+        <v>0.97224025974025896</v>
+      </c>
+      <c r="K151">
+        <v>0.81915584415584397</v>
+      </c>
+      <c r="L151">
+        <v>0.99561688311688301</v>
+      </c>
+      <c r="M151">
+        <v>0.90746753246753198</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E152">
         <v>6</v>
       </c>
+      <c r="F152">
+        <v>0.81109022556390897</v>
+      </c>
+      <c r="G152">
+        <v>0.10838815789473601</v>
+      </c>
+      <c r="H152">
+        <v>0.767175751879699</v>
+      </c>
+      <c r="I152">
+        <v>9.6052631578947306E-2</v>
+      </c>
+      <c r="J152">
+        <v>0.96697588126159495</v>
+      </c>
+      <c r="K152">
+        <v>0.69886363636363602</v>
+      </c>
+      <c r="L152">
+        <v>0.99570964749536095</v>
+      </c>
+      <c r="M152">
+        <v>0.76249999999999996</v>
+      </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E153">
         <v>7</v>
       </c>
+      <c r="F153">
+        <v>0.84226973684210504</v>
+      </c>
+      <c r="G153">
+        <v>0.155756578947368</v>
+      </c>
+      <c r="H153">
+        <v>0.81022086466165399</v>
+      </c>
+      <c r="I153">
+        <v>0.16052631578947299</v>
+      </c>
+      <c r="J153">
+        <v>0.97015306122448897</v>
+      </c>
+      <c r="K153">
+        <v>0.75941558441558399</v>
+      </c>
+      <c r="L153">
+        <v>0.996219851576994</v>
+      </c>
+      <c r="M153">
+        <v>0.83733766233766205</v>
+      </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>3</v>
       </c>
-      <c r="F154" t="e">
+      <c r="F154">
         <f>AVERAGE(F146:F153)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G154" t="e">
-        <f t="shared" ref="G154:M154" si="35">AVERAGE(G146:G153)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H154" t="e">
+        <v>0.82817492951127769</v>
+      </c>
+      <c r="G154">
+        <f>AVERAGE(G146:G153)</f>
+        <v>0.1278988486842102</v>
+      </c>
+      <c r="H154">
+        <f t="shared" ref="H154:M154" si="35">AVERAGE(H146:H153)</f>
+        <v>0.7927807800751876</v>
+      </c>
+      <c r="I154">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I154" t="e">
+        <v>0.1182565789473682</v>
+      </c>
+      <c r="J154">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J154" t="e">
+        <v>0.96948051948051894</v>
+      </c>
+      <c r="K154">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K154" t="e">
+        <v>0.73043831168831119</v>
+      </c>
+      <c r="L154">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L154" t="e">
+        <v>0.99597634508348731</v>
+      </c>
+      <c r="M154">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M154" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>0.80168425324675274</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>27</v>
       </c>
-      <c r="F155" t="e">
+      <c r="F155">
         <f>_xlfn.STDEV.S(F146:F154)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G155" t="e">
+        <v>1.7312111702348185E-2</v>
+      </c>
+      <c r="G155">
         <f t="shared" ref="G155:M155" si="36">_xlfn.STDEV.S(G146:G154)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H155" t="e">
+        <v>2.7857533015421449E-2</v>
+      </c>
+      <c r="H155">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I155" t="e">
+        <v>1.9284262140187337E-2</v>
+      </c>
+      <c r="I155">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J155" t="e">
+        <v>3.4132450602380515E-2</v>
+      </c>
+      <c r="J155">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K155" t="e">
+        <v>2.5956937626854686E-3</v>
+      </c>
+      <c r="K155">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L155" t="e">
+        <v>5.5941167435375527E-2</v>
+      </c>
+      <c r="L155">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M155" t="e">
+        <v>6.3996496876361428E-4</v>
+      </c>
+      <c r="M155">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>6.5062928976116832E-2</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -4198,120 +5194,312 @@
       <c r="E157">
         <v>0</v>
       </c>
+      <c r="F157">
+        <v>0.79869791666666601</v>
+      </c>
+      <c r="G157">
+        <v>0.128385416666666</v>
+      </c>
+      <c r="H157">
+        <v>0.78459821428571397</v>
+      </c>
+      <c r="I157">
+        <v>0.118489583333333</v>
+      </c>
+      <c r="J157">
+        <v>0.96494452149791898</v>
+      </c>
+      <c r="K157">
+        <v>0.72597087378640701</v>
+      </c>
+      <c r="L157">
+        <v>0.99570041608876503</v>
+      </c>
+      <c r="M157">
+        <v>0.80849514563106795</v>
+      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B158" t="s">
         <v>39</v>
       </c>
       <c r="E158">
         <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0.842001488095238</v>
+      </c>
+      <c r="G158">
+        <v>0.12526041666666601</v>
+      </c>
+      <c r="H158">
+        <v>0.83470982142857097</v>
+      </c>
+      <c r="I158">
+        <v>0.13072916666666601</v>
+      </c>
+      <c r="J158">
+        <v>0.97253814147018003</v>
+      </c>
+      <c r="K158">
+        <v>0.767718446601941</v>
+      </c>
+      <c r="L158">
+        <v>0.99684466019417395</v>
+      </c>
+      <c r="M158">
+        <v>0.83543689320388304</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E159">
         <v>2</v>
       </c>
+      <c r="F159">
+        <v>0.83098958333333295</v>
+      </c>
+      <c r="G159">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="H159">
+        <v>0.81588541666666603</v>
+      </c>
+      <c r="I159">
+        <v>0.121875</v>
+      </c>
+      <c r="J159">
+        <v>0.96591539528432702</v>
+      </c>
+      <c r="K159">
+        <v>0.76966019417475695</v>
+      </c>
+      <c r="L159">
+        <v>0.99698335644937597</v>
+      </c>
+      <c r="M159">
+        <v>0.84126213592233001</v>
+      </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E160">
         <v>3</v>
       </c>
+      <c r="F160">
+        <v>0.82176339285714195</v>
+      </c>
+      <c r="G160">
+        <v>0.15312499999999901</v>
+      </c>
+      <c r="H160">
+        <v>0.80249255952380905</v>
+      </c>
+      <c r="I160">
+        <v>0.14687500000000001</v>
+      </c>
+      <c r="J160">
+        <v>0.96352288488210802</v>
+      </c>
+      <c r="K160">
+        <v>0.81237864077669797</v>
+      </c>
+      <c r="L160">
+        <v>0.99511095700416097</v>
+      </c>
+      <c r="M160">
+        <v>0.87257281553398003</v>
+      </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E161">
         <v>4</v>
       </c>
+      <c r="F161">
+        <v>0.82712053571428501</v>
+      </c>
+      <c r="G161">
+        <v>6.1979166666666599E-2</v>
+      </c>
+      <c r="H161">
+        <v>0.82157738095238098</v>
+      </c>
+      <c r="I161">
+        <v>2.6041666666666598E-2</v>
+      </c>
+      <c r="J161">
+        <v>0.96532593619972196</v>
+      </c>
+      <c r="K161">
+        <v>0.59296116504854302</v>
+      </c>
+      <c r="L161">
+        <v>0.99656726768377202</v>
+      </c>
+      <c r="M161">
+        <v>0.62305825242718404</v>
+      </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E162">
         <v>5</v>
       </c>
+      <c r="F162">
+        <v>0.83143601190476202</v>
+      </c>
+      <c r="G162">
+        <v>0.141666666666666</v>
+      </c>
+      <c r="H162">
+        <v>0.82659970238095204</v>
+      </c>
+      <c r="I162">
+        <v>0.13515625000000001</v>
+      </c>
+      <c r="J162">
+        <v>0.96868932038834898</v>
+      </c>
+      <c r="K162">
+        <v>0.75849514563106701</v>
+      </c>
+      <c r="L162">
+        <v>0.99594313453536698</v>
+      </c>
+      <c r="M162">
+        <v>0.865291262135922</v>
+      </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E163">
         <v>6</v>
       </c>
+      <c r="F163">
+        <v>0.82209821428571395</v>
+      </c>
+      <c r="G163">
+        <v>0.131770833333333</v>
+      </c>
+      <c r="H163">
+        <v>0.81781994047619</v>
+      </c>
+      <c r="I163">
+        <v>0.116145833333333</v>
+      </c>
+      <c r="J163">
+        <v>0.96920943134535298</v>
+      </c>
+      <c r="K163">
+        <v>0.74441747572815498</v>
+      </c>
+      <c r="L163">
+        <v>0.99743411927877901</v>
+      </c>
+      <c r="M163">
+        <v>0.80242718446601902</v>
+      </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E164">
         <v>7</v>
       </c>
+      <c r="F164">
+        <v>0.82473958333333297</v>
+      </c>
+      <c r="G164">
+        <v>0.17708333333333301</v>
+      </c>
+      <c r="H164">
+        <v>0.80279017857142798</v>
+      </c>
+      <c r="I164">
+        <v>0.17317708333333301</v>
+      </c>
+      <c r="J164">
+        <v>0.96251733703190001</v>
+      </c>
+      <c r="K164">
+        <v>0.76917475728155305</v>
+      </c>
+      <c r="L164">
+        <v>0.99531900138696205</v>
+      </c>
+      <c r="M164">
+        <v>0.85582524271844596</v>
+      </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>3</v>
       </c>
-      <c r="F165" t="e">
+      <c r="F165">
         <f>AVERAGE(F157:F164)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G165" t="e">
+        <v>0.82485584077380913</v>
+      </c>
+      <c r="G165">
         <f t="shared" ref="G165:M165" si="37">AVERAGE(G157:G164)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H165" t="e">
+        <v>0.13287760416666619</v>
+      </c>
+      <c r="H165">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I165" t="e">
+        <v>0.81330915178571395</v>
+      </c>
+      <c r="I165">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J165" t="e">
+        <v>0.12106119791666645</v>
+      </c>
+      <c r="J165">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K165" t="e">
+        <v>0.9665828710124823</v>
+      </c>
+      <c r="K165">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L165" t="e">
+        <v>0.74259708737864005</v>
+      </c>
+      <c r="L165">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M165" t="e">
+        <v>0.99623786407766945</v>
+      </c>
+      <c r="M165">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+        <v>0.81304611650485403</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
         <v>27</v>
       </c>
-      <c r="F166" t="e">
+      <c r="F166">
         <f>_xlfn.STDEV.S(F157:F165)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G166" t="e">
+        <v>1.1626702899446851E-2</v>
+      </c>
+      <c r="G166">
         <f t="shared" ref="G166:M166" si="38">_xlfn.STDEV.S(G157:G165)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H166" t="e">
+        <v>3.095475491652731E-2</v>
+      </c>
+      <c r="H166">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I166" t="e">
+        <v>1.4924563490094252E-2</v>
+      </c>
+      <c r="I166">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J166" t="e">
+        <v>3.9897847070826241E-2</v>
+      </c>
+      <c r="J166">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K166" t="e">
+        <v>3.110523954015898E-3</v>
+      </c>
+      <c r="K166">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L166" t="e">
+        <v>6.1096986904769258E-2</v>
+      </c>
+      <c r="L166">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M166" t="e">
+        <v>7.8687973078429461E-4</v>
+      </c>
+      <c r="M166">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>7.5522669578579102E-2</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -4654,120 +5842,312 @@
       <c r="E179">
         <v>0</v>
       </c>
+      <c r="F179">
+        <v>0.84285714285714297</v>
+      </c>
+      <c r="G179">
+        <v>9.3402777777777696E-2</v>
+      </c>
+      <c r="H179">
+        <v>0.84047619047619004</v>
+      </c>
+      <c r="I179">
+        <v>9.3402777777777696E-2</v>
+      </c>
+      <c r="J179">
+        <v>0.96887755102040796</v>
+      </c>
+      <c r="K179">
+        <v>0.67370129870129802</v>
+      </c>
+      <c r="L179">
+        <v>0.99638218923933197</v>
+      </c>
+      <c r="M179">
+        <v>0.72045454545454501</v>
+      </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
       </c>
       <c r="E180">
         <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0.80783730158730105</v>
+      </c>
+      <c r="G180">
+        <v>0.15312499999999901</v>
+      </c>
+      <c r="H180">
+        <v>0.81999007936507895</v>
+      </c>
+      <c r="I180">
+        <v>0.14409722222222199</v>
+      </c>
+      <c r="J180">
+        <v>0.95765306122448901</v>
+      </c>
+      <c r="K180">
+        <v>0.75064935064935001</v>
+      </c>
+      <c r="L180">
+        <v>0.99661410018552898</v>
+      </c>
+      <c r="M180">
+        <v>0.81558441558441497</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E181">
         <v>2</v>
       </c>
+      <c r="F181">
+        <v>0.82619047619047603</v>
+      </c>
+      <c r="G181">
+        <v>0.120833333333333</v>
+      </c>
+      <c r="H181">
+        <v>0.81835317460317403</v>
+      </c>
+      <c r="I181">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="J181">
+        <v>0.965816326530612</v>
+      </c>
+      <c r="K181">
+        <v>0.76071428571428501</v>
+      </c>
+      <c r="L181">
+        <v>0.99633580705009195</v>
+      </c>
+      <c r="M181">
+        <v>0.83603896103896103</v>
+      </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E182">
         <v>3</v>
       </c>
+      <c r="F182">
+        <v>0.81785714285714195</v>
+      </c>
+      <c r="G182">
+        <v>0.16041666666666601</v>
+      </c>
+      <c r="H182">
+        <v>0.83209325396825395</v>
+      </c>
+      <c r="I182">
+        <v>0.148958333333333</v>
+      </c>
+      <c r="J182">
+        <v>0.96372912801484201</v>
+      </c>
+      <c r="K182">
+        <v>0.79480519480519396</v>
+      </c>
+      <c r="L182">
+        <v>0.99656771799628896</v>
+      </c>
+      <c r="M182">
+        <v>0.88831168831168805</v>
+      </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E183">
         <v>4</v>
       </c>
+      <c r="F183">
+        <v>0.81919642857142805</v>
+      </c>
+      <c r="G183">
+        <v>8.6458333333333304E-2</v>
+      </c>
+      <c r="H183">
+        <v>0.83625992063492005</v>
+      </c>
+      <c r="I183">
+        <v>4.6527777777777703E-2</v>
+      </c>
+      <c r="J183">
+        <v>0.96303339517625197</v>
+      </c>
+      <c r="K183">
+        <v>0.61785714285714199</v>
+      </c>
+      <c r="L183">
+        <v>0.99596474953617797</v>
+      </c>
+      <c r="M183">
+        <v>0.65032467532467497</v>
+      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E184">
         <v>5</v>
       </c>
+      <c r="F184">
+        <v>0.85808531746031702</v>
+      </c>
+      <c r="G184">
+        <v>0.171527777777777</v>
+      </c>
+      <c r="H184">
+        <v>0.86651785714285701</v>
+      </c>
+      <c r="I184">
+        <v>0.188888888888888</v>
+      </c>
+      <c r="J184">
+        <v>0.97054730983302395</v>
+      </c>
+      <c r="K184">
+        <v>0.79350649350649305</v>
+      </c>
+      <c r="L184">
+        <v>0.99661410018552798</v>
+      </c>
+      <c r="M184">
+        <v>0.88831168831168805</v>
+      </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E185">
         <v>6</v>
       </c>
+      <c r="F185">
+        <v>0.81413690476190403</v>
+      </c>
+      <c r="G185">
+        <v>0.12881944444444399</v>
+      </c>
+      <c r="H185">
+        <v>0.83363095238095197</v>
+      </c>
+      <c r="I185">
+        <v>0.12743055555555499</v>
+      </c>
+      <c r="J185">
+        <v>0.96284786641929399</v>
+      </c>
+      <c r="K185">
+        <v>0.716233766233766</v>
+      </c>
+      <c r="L185">
+        <v>0.99573283858998096</v>
+      </c>
+      <c r="M185">
+        <v>0.773701298701298</v>
+      </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E186">
         <v>7</v>
       </c>
+      <c r="F186">
+        <v>0.814632936507936</v>
+      </c>
+      <c r="G186">
+        <v>0.15</v>
+      </c>
+      <c r="H186">
+        <v>0.80620039682539602</v>
+      </c>
+      <c r="I186">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="J186">
+        <v>0.96669758812615902</v>
+      </c>
+      <c r="K186">
+        <v>0.74448051948051897</v>
+      </c>
+      <c r="L186">
+        <v>0.99461966604823704</v>
+      </c>
+      <c r="M186">
+        <v>0.81655844155844104</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
         <v>3</v>
       </c>
-      <c r="F187" t="e">
+      <c r="F187">
         <f t="shared" ref="F187:M187" si="47">AVERAGE(F179:F186)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G187" t="e">
+        <v>0.82509920634920575</v>
+      </c>
+      <c r="G187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H187" t="e">
+        <v>0.13307291666666624</v>
+      </c>
+      <c r="H187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I187" t="e">
+        <v>0.83169022817460281</v>
+      </c>
+      <c r="I187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J187" t="e">
+        <v>0.12656249999999966</v>
+      </c>
+      <c r="J187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K187" t="e">
+        <v>0.96490027829313496</v>
+      </c>
+      <c r="K187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L187" t="e">
+        <v>0.73149350649350586</v>
+      </c>
+      <c r="L187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M187" t="e">
+        <v>0.99610389610389583</v>
+      </c>
+      <c r="M187">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>0.79866071428571395</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>27</v>
       </c>
-      <c r="F188" t="e">
+      <c r="F188">
         <f>_xlfn.STDEV.S(F179:F187)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G188" t="e">
+        <v>1.5888664161628655E-2</v>
+      </c>
+      <c r="G188">
         <f t="shared" ref="G188:M188" si="48">_xlfn.STDEV.S(G179:G187)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H188" t="e">
+        <v>2.9218162006363152E-2</v>
+      </c>
+      <c r="H188">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I188" t="e">
+        <v>1.6879979949913294E-2</v>
+      </c>
+      <c r="I188">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J188" t="e">
+        <v>4.0449898637308176E-2</v>
+      </c>
+      <c r="J188">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K188" t="e">
+        <v>3.7644475998359545E-3</v>
+      </c>
+      <c r="K188">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L188" t="e">
+        <v>5.6711402446790828E-2</v>
+      </c>
+      <c r="L188">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M188" t="e">
+        <v>6.3511428282141504E-4</v>
+      </c>
+      <c r="M188">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>7.6502635289046356E-2</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -4786,120 +6166,312 @@
       <c r="E190">
         <v>0</v>
       </c>
+      <c r="F190">
+        <v>0.79681122448979502</v>
+      </c>
+      <c r="G190">
+        <v>0.105357142857142</v>
+      </c>
+      <c r="H190">
+        <v>0.79776785714285703</v>
+      </c>
+      <c r="I190">
+        <v>0.11562500000000001</v>
+      </c>
+      <c r="J190">
+        <v>0.95985023041474604</v>
+      </c>
+      <c r="K190">
+        <v>0.68991935483870903</v>
+      </c>
+      <c r="L190">
+        <v>0.99447004608294898</v>
+      </c>
+      <c r="M190">
+        <v>0.774596774193548</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B191" t="s">
         <v>39</v>
       </c>
       <c r="E191">
         <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0.80580357142857095</v>
+      </c>
+      <c r="G191">
+        <v>0.19553571428571401</v>
+      </c>
+      <c r="H191">
+        <v>0.81696428571428503</v>
+      </c>
+      <c r="I191">
+        <v>0.19508928571428499</v>
+      </c>
+      <c r="J191">
+        <v>0.96198156682027602</v>
+      </c>
+      <c r="K191">
+        <v>0.79233870967741904</v>
+      </c>
+      <c r="L191">
+        <v>0.99550691244239597</v>
+      </c>
+      <c r="M191">
+        <v>0.863709677419355</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E192">
         <v>2</v>
       </c>
+      <c r="F192">
+        <v>0.80586734693877504</v>
+      </c>
+      <c r="G192">
+        <v>0.13571428571428501</v>
+      </c>
+      <c r="H192">
+        <v>0.80376275510203998</v>
+      </c>
+      <c r="I192">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="J192">
+        <v>0.96163594470045999</v>
+      </c>
+      <c r="K192">
+        <v>0.780241935483871</v>
+      </c>
+      <c r="L192">
+        <v>0.994354838709677</v>
+      </c>
+      <c r="M192">
+        <v>0.85645161290322502</v>
+      </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E193">
         <v>3</v>
       </c>
+      <c r="F193">
+        <v>0.81485969387755097</v>
+      </c>
+      <c r="G193">
+        <v>0.127678571428571</v>
+      </c>
+      <c r="H193">
+        <v>0.82646683673469301</v>
+      </c>
+      <c r="I193">
+        <v>0.124107142857142</v>
+      </c>
+      <c r="J193">
+        <v>0.96486175115207296</v>
+      </c>
+      <c r="K193">
+        <v>0.74395161290322498</v>
+      </c>
+      <c r="L193">
+        <v>0.99665898617511495</v>
+      </c>
+      <c r="M193">
+        <v>0.82016129032258001</v>
+      </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E194">
         <v>4</v>
       </c>
+      <c r="F194">
+        <v>0.80401785714285701</v>
+      </c>
+      <c r="G194">
+        <v>7.8124999999999903E-2</v>
+      </c>
+      <c r="H194">
+        <v>0.82557397959183598</v>
+      </c>
+      <c r="I194">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="J194">
+        <v>0.96117511520737298</v>
+      </c>
+      <c r="K194">
+        <v>0.64193548387096699</v>
+      </c>
+      <c r="L194">
+        <v>0.99389400921658899</v>
+      </c>
+      <c r="M194">
+        <v>0.67862903225806404</v>
+      </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E195">
         <v>5</v>
       </c>
+      <c r="F195">
+        <v>0.82436224489795895</v>
+      </c>
+      <c r="G195">
+        <v>0.155357142857142</v>
+      </c>
+      <c r="H195">
+        <v>0.84094387755101996</v>
+      </c>
+      <c r="I195">
+        <v>0.13258928571428499</v>
+      </c>
+      <c r="J195">
+        <v>0.96451612903225803</v>
+      </c>
+      <c r="K195">
+        <v>0.77217741935483797</v>
+      </c>
+      <c r="L195">
+        <v>0.99567972350230405</v>
+      </c>
+      <c r="M195">
+        <v>0.85685483870967705</v>
+      </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E196">
         <v>6</v>
       </c>
+      <c r="F196">
+        <v>0.81396683673469405</v>
+      </c>
+      <c r="G196">
+        <v>0.124553571428571</v>
+      </c>
+      <c r="H196">
+        <v>0.82876275510204001</v>
+      </c>
+      <c r="I196">
+        <v>0.14196428571428499</v>
+      </c>
+      <c r="J196">
+        <v>0.95604838709677398</v>
+      </c>
+      <c r="K196">
+        <v>0.77298387096774102</v>
+      </c>
+      <c r="L196">
+        <v>0.99614055299539095</v>
+      </c>
+      <c r="M196">
+        <v>0.84637096774193499</v>
+      </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E197">
         <v>7</v>
       </c>
+      <c r="F197">
+        <v>0.80184948979591797</v>
+      </c>
+      <c r="G197">
+        <v>0.16517857142857101</v>
+      </c>
+      <c r="H197">
+        <v>0.80727040816326501</v>
+      </c>
+      <c r="I197">
+        <v>0.16116071428571399</v>
+      </c>
+      <c r="J197">
+        <v>0.96215437788018399</v>
+      </c>
+      <c r="K197">
+        <v>0.78991935483870901</v>
+      </c>
+      <c r="L197">
+        <v>0.99481566820276401</v>
+      </c>
+      <c r="M197">
+        <v>0.85282258064516103</v>
+      </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
         <v>3</v>
       </c>
-      <c r="F198" t="e">
+      <c r="F198">
         <f t="shared" ref="F198:M198" si="49">AVERAGE(F190:F197)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G198" t="e">
+        <v>0.80844228316326494</v>
+      </c>
+      <c r="G198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H198" t="e">
+        <v>0.13593749999999949</v>
+      </c>
+      <c r="H198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I198" t="e">
+        <v>0.81843909438775442</v>
+      </c>
+      <c r="I198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J198" t="e">
+        <v>0.12812499999999957</v>
+      </c>
+      <c r="J198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K198" t="e">
+        <v>0.96152793778801804</v>
+      </c>
+      <c r="K198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L198" t="e">
+        <v>0.74793346774193492</v>
+      </c>
+      <c r="L198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M198" t="e">
+        <v>0.99519009216589827</v>
+      </c>
+      <c r="M198">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0.81869959677419313</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
         <v>27</v>
       </c>
-      <c r="F199" t="e">
+      <c r="F199">
         <f>_xlfn.STDEV.S(F190:F198)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G199" t="e">
+        <v>8.1934739740909326E-3</v>
+      </c>
+      <c r="G199">
         <f t="shared" ref="G199:M199" si="50">_xlfn.STDEV.S(G190:G198)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H199" t="e">
+        <v>3.4020962081772216E-2</v>
+      </c>
+      <c r="H199">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I199" t="e">
+        <v>1.368395075673604E-2</v>
+      </c>
+      <c r="I199">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J199" t="e">
+        <v>4.2701073715172039E-2</v>
+      </c>
+      <c r="J199">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K199" t="e">
+        <v>2.5888735972734523E-3</v>
+      </c>
+      <c r="K199">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L199" t="e">
+        <v>5.0757800206818832E-2</v>
+      </c>
+      <c r="L199">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M199" t="e">
+        <v>8.9702831235019683E-4</v>
+      </c>
+      <c r="M199">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>5.9586057429166089E-2</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -7226,7 +8798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>10</v>
       </c>
@@ -7242,8 +8814,32 @@
       <c r="E290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>0.95169417418801705</v>
+      </c>
+      <c r="G290">
+        <v>6.5432787698412695E-2</v>
+      </c>
+      <c r="H290">
+        <v>0.94103996864569905</v>
+      </c>
+      <c r="I290">
+        <v>6.6011904761904702E-2</v>
+      </c>
+      <c r="J290">
+        <v>0.98806720850848795</v>
+      </c>
+      <c r="K290">
+        <v>0.61562516059529304</v>
+      </c>
+      <c r="L290">
+        <v>0.99655835259750303</v>
+      </c>
+      <c r="M290">
+        <v>0.64699545838151995</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>47</v>
       </c>
@@ -7253,48 +8849,280 @@
       <c r="E291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>0.94970597464939399</v>
+      </c>
+      <c r="G291">
+        <v>7.5835813492063406E-2</v>
+      </c>
+      <c r="H291">
+        <v>0.936929434975592</v>
+      </c>
+      <c r="I291">
+        <v>7.4350198412698396E-2</v>
+      </c>
+      <c r="J291">
+        <v>0.98791674234875804</v>
+      </c>
+      <c r="K291">
+        <v>0.64190622473601899</v>
+      </c>
+      <c r="L291">
+        <v>0.99648452595618997</v>
+      </c>
+      <c r="M291">
+        <v>0.68496043802707296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>0.946649509369199</v>
+      </c>
+      <c r="G292">
+        <v>9.6510416666666599E-2</v>
+      </c>
+      <c r="H292">
+        <v>0.93227480009995001</v>
+      </c>
+      <c r="I292">
+        <v>9.5889136904761793E-2</v>
+      </c>
+      <c r="J292">
+        <v>0.98499956059306604</v>
+      </c>
+      <c r="K292">
+        <v>0.65756065392629204</v>
+      </c>
+      <c r="L292">
+        <v>0.99485326048544398</v>
+      </c>
+      <c r="M292">
+        <v>0.70958687037280099</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E293">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>0.94841546790778697</v>
+      </c>
+      <c r="G293">
+        <v>8.8420138888888805E-2</v>
+      </c>
+      <c r="H293">
+        <v>0.93618142344843203</v>
+      </c>
+      <c r="I293">
+        <v>8.9801587301587299E-2</v>
+      </c>
+      <c r="J293">
+        <v>0.98758361441645004</v>
+      </c>
+      <c r="K293">
+        <v>0.65615033809293399</v>
+      </c>
+      <c r="L293">
+        <v>0.99673133850561202</v>
+      </c>
+      <c r="M293">
+        <v>0.69736168876129301</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E294">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>0.95124069835896696</v>
+      </c>
+      <c r="G294">
+        <v>7.9368799603174597E-2</v>
+      </c>
+      <c r="H294">
+        <v>0.94279276272856805</v>
+      </c>
+      <c r="I294">
+        <v>6.8133680555555506E-2</v>
+      </c>
+      <c r="J294">
+        <v>0.98909678497825304</v>
+      </c>
+      <c r="K294">
+        <v>0.62601852246152301</v>
+      </c>
+      <c r="L294">
+        <v>0.99699694367276404</v>
+      </c>
+      <c r="M294">
+        <v>0.66921265655864204</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E295">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>0.94822055176373798</v>
+      </c>
+      <c r="G295">
+        <v>6.4696180555555496E-2</v>
+      </c>
+      <c r="H295">
+        <v>0.939435645597959</v>
+      </c>
+      <c r="I295">
+        <v>5.6758432539682498E-2</v>
+      </c>
+      <c r="J295">
+        <v>0.98725158858185402</v>
+      </c>
+      <c r="K295">
+        <v>0.607200100651765</v>
+      </c>
+      <c r="L295">
+        <v>0.99638120465112501</v>
+      </c>
+      <c r="M295">
+        <v>0.636445746523157</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E296">
         <v>6</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>0.94917803967714798</v>
+      </c>
+      <c r="G296">
+        <v>8.6569940476190405E-2</v>
+      </c>
+      <c r="H296">
+        <v>0.93756930965320895</v>
+      </c>
+      <c r="I296">
+        <v>8.6351686507936495E-2</v>
+      </c>
+      <c r="J296">
+        <v>0.98771763490954501</v>
+      </c>
+      <c r="K296">
+        <v>0.63878533572910201</v>
+      </c>
+      <c r="L296">
+        <v>0.99658558599650504</v>
+      </c>
+      <c r="M296">
+        <v>0.67406861794137996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E297">
         <v>7</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>0.94938914436475896</v>
+      </c>
+      <c r="G297">
+        <v>8.3984374999999903E-2</v>
+      </c>
+      <c r="H297">
+        <v>0.94176833283971795</v>
+      </c>
+      <c r="I297">
+        <v>8.4125744047618994E-2</v>
+      </c>
+      <c r="J297">
+        <v>0.98703745058375403</v>
+      </c>
+      <c r="K297">
+        <v>0.65282299254075504</v>
+      </c>
+      <c r="L297">
+        <v>0.99688429027157799</v>
+      </c>
+      <c r="M297">
+        <v>0.696027481953853</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <f t="shared" ref="F298:J298" si="84">AVERAGE(F290:F297)</f>
+        <v>0.94931169503487611</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="84"/>
+        <v>8.010230654761899E-2</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="84"/>
+        <v>0.93849895974864084</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="84"/>
+        <v>7.7677796378968211E-2</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="84"/>
+        <v>0.98745882311502109</v>
+      </c>
+      <c r="K298">
+        <f>AVERAGE(K290:K297)</f>
+        <v>0.63700866609171036</v>
+      </c>
+      <c r="L298">
+        <f>AVERAGE(L290:L297)</f>
+        <v>0.99643443776709006</v>
+      </c>
+      <c r="M298">
+        <f t="shared" ref="M298" si="85">AVERAGE(M290:M297)</f>
+        <v>0.67683236981496486</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <f>_xlfn.STDEV.S(F290:F298)</f>
+        <v>1.5271553836829666E-3</v>
+      </c>
+      <c r="G299">
+        <f t="shared" ref="G299:J299" si="86">_xlfn.STDEV.S(G290:G298)</f>
+        <v>1.0407915577941509E-2</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="86"/>
+        <v>3.2384109950456411E-3</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="86"/>
+        <v>1.2606186452126427E-2</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="86"/>
+        <v>1.0962305531140263E-3</v>
+      </c>
+      <c r="K299">
+        <f>_xlfn.STDEV.S(K290:K298)</f>
+        <v>1.779259503832286E-2</v>
+      </c>
+      <c r="L299">
+        <f>_xlfn.STDEV.S(L290:L298)</f>
+        <v>6.2755428829055788E-4</v>
+      </c>
+      <c r="M299">
+        <f t="shared" ref="M299" si="87">_xlfn.STDEV.S(M290:M298)</f>
+        <v>2.375880638154905E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>14</v>
       </c>
@@ -7311,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -7319,49 +9147,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E303">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E304">
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E305">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E306">
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E307">
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E308">
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" t="e">
+        <f t="shared" ref="F309:J309" si="88">AVERAGE(F301:F308)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G309" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H309" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I309" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J309" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K309" t="e">
+        <f>AVERAGE(K301:K308)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L309" t="e">
+        <f>AVERAGE(L301:L308)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M309" t="e">
+        <f t="shared" ref="M309" si="89">AVERAGE(M301:M308)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" t="e">
+        <f>_xlfn.STDEV.S(F301:F309)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G310" t="e">
+        <f t="shared" ref="G310:J310" si="90">_xlfn.STDEV.S(G301:G309)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H310" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I310" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J310" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K310" t="e">
+        <f>_xlfn.STDEV.S(K301:K309)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L310" t="e">
+        <f>_xlfn.STDEV.S(L301:L309)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M310" t="e">
+        <f t="shared" ref="M310" si="91">_xlfn.STDEV.S(M301:M309)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B312" t="s">
         <v>24</v>
@@ -7376,52 +9268,1658 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E313">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E314">
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E315">
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E316">
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E317">
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E318">
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E319">
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F320" t="e">
+        <f t="shared" ref="F320:J320" si="92">AVERAGE(F312:F319)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G320" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H320" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I320" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J320" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K320" t="e">
+        <f>AVERAGE(K312:K319)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L320" t="e">
+        <f>AVERAGE(L312:L319)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M320" t="e">
+        <f t="shared" ref="M320" si="93">AVERAGE(M312:M319)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
         <v>27</v>
+      </c>
+      <c r="F321" t="e">
+        <f>_xlfn.STDEV.S(F312:F320)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G321" t="e">
+        <f t="shared" ref="G321:J321" si="94">_xlfn.STDEV.S(G312:G320)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H321" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I321" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J321" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K321" t="e">
+        <f>_xlfn.STDEV.S(K312:K320)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L321" t="e">
+        <f>_xlfn.STDEV.S(L312:L320)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M321" t="e">
+        <f t="shared" ref="M321" si="95">_xlfn.STDEV.S(M312:M320)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" t="s">
+        <v>24</v>
+      </c>
+      <c r="C323" t="s">
+        <v>36</v>
+      </c>
+      <c r="D323">
+        <v>10</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>3</v>
+      </c>
+      <c r="F331" t="e">
+        <f t="shared" ref="F331:J331" si="96">AVERAGE(F323:F330)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G331" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H331" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I331" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J331" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K331" t="e">
+        <f>AVERAGE(K323:K330)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L331" t="e">
+        <f>AVERAGE(L323:L330)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M331" t="e">
+        <f t="shared" ref="M331" si="97">AVERAGE(M323:M330)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>27</v>
+      </c>
+      <c r="F332" t="e">
+        <f>_xlfn.STDEV.S(F323:F331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G332" t="e">
+        <f t="shared" ref="G332:J332" si="98">_xlfn.STDEV.S(G323:G331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H332" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I332" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J332" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K332" t="e">
+        <f>_xlfn.STDEV.S(K323:K331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L332" t="e">
+        <f>_xlfn.STDEV.S(L323:L331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M332" t="e">
+        <f t="shared" ref="M332" si="99">_xlfn.STDEV.S(M323:M331)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>53</v>
+      </c>
+      <c r="B334" t="s">
+        <v>24</v>
+      </c>
+      <c r="C334" t="s">
+        <v>36</v>
+      </c>
+      <c r="D334">
+        <v>10</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>66</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E342" t="s">
+        <v>3</v>
+      </c>
+      <c r="F342" t="e">
+        <f t="shared" ref="F342:J342" si="100">AVERAGE(F334:F341)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G342" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H342" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I342" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J342" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K342" t="e">
+        <f>AVERAGE(K334:K341)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L342" t="e">
+        <f>AVERAGE(L334:L341)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M342" t="e">
+        <f t="shared" ref="M342" si="101">AVERAGE(M334:M341)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>27</v>
+      </c>
+      <c r="F343" t="e">
+        <f>_xlfn.STDEV.S(F334:F342)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G343" t="e">
+        <f t="shared" ref="G343:J343" si="102">_xlfn.STDEV.S(G334:G342)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H343" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I343" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J343" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K343" t="e">
+        <f>_xlfn.STDEV.S(K334:K342)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L343" t="e">
+        <f>_xlfn.STDEV.S(L334:L342)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M343" t="e">
+        <f t="shared" ref="M343" si="103">_xlfn.STDEV.S(M334:M342)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>16</v>
+      </c>
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+      <c r="C345" t="s">
+        <v>36</v>
+      </c>
+      <c r="D345">
+        <v>10</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0.93149294483418299</v>
+      </c>
+      <c r="G345">
+        <v>5.6432291666666599E-2</v>
+      </c>
+      <c r="H345">
+        <v>0.92728053614911798</v>
+      </c>
+      <c r="I345">
+        <v>7.1419270833333298E-2</v>
+      </c>
+      <c r="J345">
+        <v>0.99134572280170496</v>
+      </c>
+      <c r="K345">
+        <v>0.61368039527268503</v>
+      </c>
+      <c r="L345">
+        <v>0.99727567228904201</v>
+      </c>
+      <c r="M345">
+        <v>0.63821429953327002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>67</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>0.93197804334802004</v>
+      </c>
+      <c r="G346">
+        <v>9.6953125000000001E-2</v>
+      </c>
+      <c r="H346">
+        <v>0.92949193988675005</v>
+      </c>
+      <c r="I346">
+        <v>9.3997395833333303E-2</v>
+      </c>
+      <c r="J346">
+        <v>0.99227576307118004</v>
+      </c>
+      <c r="K346">
+        <v>0.67624183170225705</v>
+      </c>
+      <c r="L346">
+        <v>0.99741653586549694</v>
+      </c>
+      <c r="M346">
+        <v>0.72477201956460302</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>0.93095602871830496</v>
+      </c>
+      <c r="G347">
+        <v>0.116458333333333</v>
+      </c>
+      <c r="H347">
+        <v>0.925659043802179</v>
+      </c>
+      <c r="I347">
+        <v>0.11057291666666599</v>
+      </c>
+      <c r="J347">
+        <v>0.98970960052060397</v>
+      </c>
+      <c r="K347">
+        <v>0.70542557459559196</v>
+      </c>
+      <c r="L347">
+        <v>0.99704240999519</v>
+      </c>
+      <c r="M347">
+        <v>0.75581962310214701</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>0.93273656728316301</v>
+      </c>
+      <c r="G348">
+        <v>9.0677083333333297E-2</v>
+      </c>
+      <c r="H348">
+        <v>0.92942646731988199</v>
+      </c>
+      <c r="I348">
+        <v>9.5299479166666604E-2</v>
+      </c>
+      <c r="J348">
+        <v>0.99126253799363895</v>
+      </c>
+      <c r="K348">
+        <v>0.68452692337014498</v>
+      </c>
+      <c r="L348">
+        <v>0.997635618584229</v>
+      </c>
+      <c r="M348">
+        <v>0.73462744386378098</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>4</v>
+      </c>
+      <c r="F349">
+        <v>0.93169355384199104</v>
+      </c>
+      <c r="G349">
+        <v>0.106328125</v>
+      </c>
+      <c r="H349">
+        <v>0.92803322003517297</v>
+      </c>
+      <c r="I349">
+        <v>9.3880208333333298E-2</v>
+      </c>
+      <c r="J349">
+        <v>0.99191134515079504</v>
+      </c>
+      <c r="K349">
+        <v>0.68259159412362203</v>
+      </c>
+      <c r="L349">
+        <v>0.99725843806477799</v>
+      </c>
+      <c r="M349">
+        <v>0.73116178368740603</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>5</v>
+      </c>
+      <c r="F350">
+        <v>0.93142213348407499</v>
+      </c>
+      <c r="G350">
+        <v>8.7083333333333304E-2</v>
+      </c>
+      <c r="H350">
+        <v>0.92872988293328695</v>
+      </c>
+      <c r="I350">
+        <v>8.0898437500000003E-2</v>
+      </c>
+      <c r="J350">
+        <v>0.991739974236588</v>
+      </c>
+      <c r="K350">
+        <v>0.65055042672456798</v>
+      </c>
+      <c r="L350">
+        <v>0.99720034466140395</v>
+      </c>
+      <c r="M350">
+        <v>0.68850829243828804</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>6</v>
+      </c>
+      <c r="F351">
+        <v>0.93117984693877498</v>
+      </c>
+      <c r="G351">
+        <v>8.0559895833333298E-2</v>
+      </c>
+      <c r="H351">
+        <v>0.92694177706594005</v>
+      </c>
+      <c r="I351">
+        <v>8.4049479166666594E-2</v>
+      </c>
+      <c r="J351">
+        <v>0.99080725037139294</v>
+      </c>
+      <c r="K351">
+        <v>0.66686808641401096</v>
+      </c>
+      <c r="L351">
+        <v>0.99716831038259901</v>
+      </c>
+      <c r="M351">
+        <v>0.72555463835988299</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>7</v>
+      </c>
+      <c r="F352">
+        <v>0.932018017789502</v>
+      </c>
+      <c r="G352">
+        <v>8.9479166666666596E-2</v>
+      </c>
+      <c r="H352">
+        <v>0.929835633116883</v>
+      </c>
+      <c r="I352">
+        <v>8.0234374999999997E-2</v>
+      </c>
+      <c r="J352">
+        <v>0.99238388545845502</v>
+      </c>
+      <c r="K352">
+        <v>0.64597724449243099</v>
+      </c>
+      <c r="L352">
+        <v>0.99740200272187696</v>
+      </c>
+      <c r="M352">
+        <v>0.69180278177297805</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>3</v>
+      </c>
+      <c r="F353">
+        <f t="shared" ref="F353:J353" si="104">AVERAGE(F345:F352)</f>
+        <v>0.93168464202975176</v>
+      </c>
+      <c r="G353">
+        <f t="shared" si="104"/>
+        <v>9.0496419270833267E-2</v>
+      </c>
+      <c r="H353">
+        <f t="shared" si="104"/>
+        <v>0.92817481253865153</v>
+      </c>
+      <c r="I353">
+        <f t="shared" si="104"/>
+        <v>8.8793945312499886E-2</v>
+      </c>
+      <c r="J353">
+        <f t="shared" si="104"/>
+        <v>0.99142950995054491</v>
+      </c>
+      <c r="K353">
+        <f>AVERAGE(K345:K352)</f>
+        <v>0.6657327595869138</v>
+      </c>
+      <c r="L353">
+        <f>AVERAGE(L345:L352)</f>
+        <v>0.99729991657057693</v>
+      </c>
+      <c r="M353">
+        <f t="shared" ref="M353" si="105">AVERAGE(M345:M352)</f>
+        <v>0.71130761029029455</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>27</v>
+      </c>
+      <c r="F354">
+        <f>_xlfn.STDEV.S(F345:F353)</f>
+        <v>5.2383249741046851E-4</v>
+      </c>
+      <c r="G354">
+        <f t="shared" ref="G354:J354" si="106">_xlfn.STDEV.S(G345:G353)</f>
+        <v>1.6726359520209573E-2</v>
+      </c>
+      <c r="H354">
+        <f t="shared" si="106"/>
+        <v>1.3710005374205643E-3</v>
+      </c>
+      <c r="I354">
+        <f t="shared" si="106"/>
+        <v>1.1344525621588442E-2</v>
+      </c>
+      <c r="J354">
+        <f t="shared" si="106"/>
+        <v>8.1667967551096623E-4</v>
+      </c>
+      <c r="K354">
+        <f>_xlfn.STDEV.S(K345:K353)</f>
+        <v>2.6586938192895079E-2</v>
+      </c>
+      <c r="L354">
+        <f>_xlfn.STDEV.S(L345:L353)</f>
+        <v>1.7050297871787316E-4</v>
+      </c>
+      <c r="M354">
+        <f t="shared" ref="M354" si="107">_xlfn.STDEV.S(M345:M353)</f>
+        <v>3.4544300465293144E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>54</v>
+      </c>
+      <c r="B356" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356" t="s">
+        <v>36</v>
+      </c>
+      <c r="D356">
+        <v>10</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0.89989140447845795</v>
+      </c>
+      <c r="G356">
+        <v>7.2395833333333298E-2</v>
+      </c>
+      <c r="H356">
+        <v>0.89891918225623502</v>
+      </c>
+      <c r="I356">
+        <v>7.2265625E-2</v>
+      </c>
+      <c r="J356">
+        <v>0.99090016239284096</v>
+      </c>
+      <c r="K356">
+        <v>0.62216983336066201</v>
+      </c>
+      <c r="L356">
+        <v>0.99635756689098098</v>
+      </c>
+      <c r="M356">
+        <v>0.67118384868515701</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>68</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0.89889987244897895</v>
+      </c>
+      <c r="G357">
+        <v>7.4479166666666596E-2</v>
+      </c>
+      <c r="H357">
+        <v>0.89744791666666601</v>
+      </c>
+      <c r="I357">
+        <v>7.9296875000000003E-2</v>
+      </c>
+      <c r="J357">
+        <v>0.99143920799317298</v>
+      </c>
+      <c r="K357">
+        <v>0.66167680575905696</v>
+      </c>
+      <c r="L357">
+        <v>0.99661255498397305</v>
+      </c>
+      <c r="M357">
+        <v>0.691470504137919</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>2</v>
+      </c>
+      <c r="F358">
+        <v>0.90007901077097496</v>
+      </c>
+      <c r="G358">
+        <v>0.107942708333333</v>
+      </c>
+      <c r="H358">
+        <v>0.898503047052154</v>
+      </c>
+      <c r="I358">
+        <v>0.116666666666666</v>
+      </c>
+      <c r="J358">
+        <v>0.98901754020548005</v>
+      </c>
+      <c r="K358">
+        <v>0.69811768899515003</v>
+      </c>
+      <c r="L358">
+        <v>0.99585412343871005</v>
+      </c>
+      <c r="M358">
+        <v>0.75938843883396501</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>0.90065281320861601</v>
+      </c>
+      <c r="G359">
+        <v>9.2057291666666596E-2</v>
+      </c>
+      <c r="H359">
+        <v>0.89805750425169995</v>
+      </c>
+      <c r="I359">
+        <v>8.8802083333333295E-2</v>
+      </c>
+      <c r="J359">
+        <v>0.99041418871630005</v>
+      </c>
+      <c r="K359">
+        <v>0.69709479114689199</v>
+      </c>
+      <c r="L359">
+        <v>0.99640019347261</v>
+      </c>
+      <c r="M359">
+        <v>0.75683574361768302</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>4</v>
+      </c>
+      <c r="F360">
+        <v>0.90087709041950104</v>
+      </c>
+      <c r="G360">
+        <v>0.102994791666666</v>
+      </c>
+      <c r="H360">
+        <v>0.89907578656462595</v>
+      </c>
+      <c r="I360">
+        <v>0.111848958333333</v>
+      </c>
+      <c r="J360">
+        <v>0.98974757542819203</v>
+      </c>
+      <c r="K360">
+        <v>0.69733955901964095</v>
+      </c>
+      <c r="L360">
+        <v>0.99624312501799905</v>
+      </c>
+      <c r="M360">
+        <v>0.74254442437343404</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>5</v>
+      </c>
+      <c r="F361">
+        <v>0.89826902636054395</v>
+      </c>
+      <c r="G361">
+        <v>8.1640624999999994E-2</v>
+      </c>
+      <c r="H361">
+        <v>0.89582819586167795</v>
+      </c>
+      <c r="I361">
+        <v>8.1640624999999994E-2</v>
+      </c>
+      <c r="J361">
+        <v>0.98890057913601803</v>
+      </c>
+      <c r="K361">
+        <v>0.66065708900420095</v>
+      </c>
+      <c r="L361">
+        <v>0.99619236413600099</v>
+      </c>
+      <c r="M361">
+        <v>0.71041638749449698</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>6</v>
+      </c>
+      <c r="F362">
+        <v>0.90004322562358197</v>
+      </c>
+      <c r="G362">
+        <v>0.11367187500000001</v>
+      </c>
+      <c r="H362">
+        <v>0.89894894416099702</v>
+      </c>
+      <c r="I362">
+        <v>0.110807291666666</v>
+      </c>
+      <c r="J362">
+        <v>0.990740564771315</v>
+      </c>
+      <c r="K362">
+        <v>0.70650588700638695</v>
+      </c>
+      <c r="L362">
+        <v>0.99666178024412</v>
+      </c>
+      <c r="M362">
+        <v>0.76050395572270602</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>7</v>
+      </c>
+      <c r="F363">
+        <v>0.901229095804988</v>
+      </c>
+      <c r="G363">
+        <v>0.114583333333333</v>
+      </c>
+      <c r="H363">
+        <v>0.89997006094104304</v>
+      </c>
+      <c r="I363">
+        <v>9.5442708333333307E-2</v>
+      </c>
+      <c r="J363">
+        <v>0.99061782942084997</v>
+      </c>
+      <c r="K363">
+        <v>0.69905301494188199</v>
+      </c>
+      <c r="L363">
+        <v>0.99650343487419801</v>
+      </c>
+      <c r="M363">
+        <v>0.75748275817989097</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>3</v>
+      </c>
+      <c r="F364">
+        <f t="shared" ref="F364:J364" si="108">AVERAGE(F356:F363)</f>
+        <v>0.89999269238945534</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="108"/>
+        <v>9.497070312499982E-2</v>
+      </c>
+      <c r="H364">
+        <f t="shared" si="108"/>
+        <v>0.89834382971938742</v>
+      </c>
+      <c r="I364">
+        <f t="shared" si="108"/>
+        <v>9.4596354166666452E-2</v>
+      </c>
+      <c r="J364">
+        <f t="shared" si="108"/>
+        <v>0.99022220600802102</v>
+      </c>
+      <c r="K364">
+        <f>AVERAGE(K356:K363)</f>
+        <v>0.68032683365423385</v>
+      </c>
+      <c r="L364">
+        <f>AVERAGE(L356:L363)</f>
+        <v>0.99635314288232402</v>
+      </c>
+      <c r="M364">
+        <f t="shared" ref="M364" si="109">AVERAGE(M356:M363)</f>
+        <v>0.73122825763065658</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>27</v>
+      </c>
+      <c r="F365">
+        <f>_xlfn.STDEV.S(F356:F364)</f>
+        <v>9.3087032465312609E-4</v>
+      </c>
+      <c r="G365">
+        <f t="shared" ref="G365:J365" si="110">_xlfn.STDEV.S(G356:G364)</f>
+        <v>1.613518969099333E-2</v>
+      </c>
+      <c r="H365">
+        <f t="shared" si="110"/>
+        <v>1.1787699720084875E-3</v>
+      </c>
+      <c r="I365">
+        <f t="shared" si="110"/>
+        <v>1.574175131219506E-2</v>
+      </c>
+      <c r="J365">
+        <f t="shared" si="110"/>
+        <v>8.5337427428144419E-4</v>
+      </c>
+      <c r="K365">
+        <f>_xlfn.STDEV.S(K356:K364)</f>
+        <v>2.7477453336470687E-2</v>
+      </c>
+      <c r="L365">
+        <f>_xlfn.STDEV.S(L356:L364)</f>
+        <v>2.4350226208992652E-4</v>
+      </c>
+      <c r="M365">
+        <f t="shared" ref="M365" si="111">_xlfn.STDEV.S(M356:M364)</f>
+        <v>3.3057344151042833E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>17</v>
+      </c>
+      <c r="B367" t="s">
+        <v>24</v>
+      </c>
+      <c r="C367" t="s">
+        <v>36</v>
+      </c>
+      <c r="D367">
+        <v>10</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0.86779296875</v>
+      </c>
+      <c r="G367">
+        <v>8.3984375E-2</v>
+      </c>
+      <c r="H367">
+        <v>0.86700374681122405</v>
+      </c>
+      <c r="I367">
+        <v>9.1406249999999994E-2</v>
+      </c>
+      <c r="J367">
+        <v>0.98738399455308801</v>
+      </c>
+      <c r="K367">
+        <v>0.67341493426241095</v>
+      </c>
+      <c r="L367">
+        <v>0.99496355478194698</v>
+      </c>
+      <c r="M367">
+        <v>0.71569323220228098</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>69</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>0.866824378188775</v>
+      </c>
+      <c r="G368">
+        <v>0.10195312500000001</v>
+      </c>
+      <c r="H368">
+        <v>0.86562898596938698</v>
+      </c>
+      <c r="I368">
+        <v>0.10117187499999999</v>
+      </c>
+      <c r="J368">
+        <v>0.98884717389656696</v>
+      </c>
+      <c r="K368">
+        <v>0.69485129094773601</v>
+      </c>
+      <c r="L368">
+        <v>0.99528952067118703</v>
+      </c>
+      <c r="M368">
+        <v>0.75180472401754195</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>2</v>
+      </c>
+      <c r="F369">
+        <v>0.86860212053571395</v>
+      </c>
+      <c r="G369">
+        <v>0.11484374999999999</v>
+      </c>
+      <c r="H369">
+        <v>0.86693000637755102</v>
+      </c>
+      <c r="I369">
+        <v>0.114453125</v>
+      </c>
+      <c r="J369">
+        <v>0.98525249832179795</v>
+      </c>
+      <c r="K369">
+        <v>0.69986346947313705</v>
+      </c>
+      <c r="L369">
+        <v>0.99469985084335899</v>
+      </c>
+      <c r="M369">
+        <v>0.77078635644488003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>0.86635443239795895</v>
+      </c>
+      <c r="G370">
+        <v>0.10585937500000001</v>
+      </c>
+      <c r="H370">
+        <v>0.86531529017857101</v>
+      </c>
+      <c r="I370">
+        <v>0.100390625</v>
+      </c>
+      <c r="J370">
+        <v>0.98686622730368601</v>
+      </c>
+      <c r="K370">
+        <v>0.69134895502721805</v>
+      </c>
+      <c r="L370">
+        <v>0.99537795833654197</v>
+      </c>
+      <c r="M370">
+        <v>0.75142938378825397</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <v>4</v>
+      </c>
+      <c r="F371">
+        <v>0.86933633609693794</v>
+      </c>
+      <c r="G371">
+        <v>9.8437499999999997E-2</v>
+      </c>
+      <c r="H371">
+        <v>0.86939971301020402</v>
+      </c>
+      <c r="I371">
+        <v>8.3593749999999994E-2</v>
+      </c>
+      <c r="J371">
+        <v>0.988504706582083</v>
+      </c>
+      <c r="K371">
+        <v>0.69889162795506499</v>
+      </c>
+      <c r="L371">
+        <v>0.99530769394629404</v>
+      </c>
+      <c r="M371">
+        <v>0.75543047420508902</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <v>5</v>
+      </c>
+      <c r="F372">
+        <v>0.86589764030612204</v>
+      </c>
+      <c r="G372">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="H372">
+        <v>0.86517697704081598</v>
+      </c>
+      <c r="I372">
+        <v>8.203125E-2</v>
+      </c>
+      <c r="J372">
+        <v>0.98609058809043904</v>
+      </c>
+      <c r="K372">
+        <v>0.67514195255544596</v>
+      </c>
+      <c r="L372">
+        <v>0.99515590720477898</v>
+      </c>
+      <c r="M372">
+        <v>0.73396113451439704</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <v>6</v>
+      </c>
+      <c r="F373">
+        <v>0.86646484374999999</v>
+      </c>
+      <c r="G373">
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H373">
+        <v>0.86515425701530602</v>
+      </c>
+      <c r="I373">
+        <v>6.9921874999999994E-2</v>
+      </c>
+      <c r="J373">
+        <v>0.98827564182011396</v>
+      </c>
+      <c r="K373">
+        <v>0.66828585151095399</v>
+      </c>
+      <c r="L373">
+        <v>0.99537264825238803</v>
+      </c>
+      <c r="M373">
+        <v>0.720588494479389</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <v>7</v>
+      </c>
+      <c r="F374">
+        <v>0.86393933354591801</v>
+      </c>
+      <c r="G374">
+        <v>0.10859375</v>
+      </c>
+      <c r="H374">
+        <v>0.86209422831632598</v>
+      </c>
+      <c r="I374">
+        <v>7.8515624999999895E-2</v>
+      </c>
+      <c r="J374">
+        <v>0.98537537803498998</v>
+      </c>
+      <c r="K374">
+        <v>0.70021730793275205</v>
+      </c>
+      <c r="L374">
+        <v>0.99457204152442402</v>
+      </c>
+      <c r="M374">
+        <v>0.72823952983438101</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>3</v>
+      </c>
+      <c r="F375">
+        <f t="shared" ref="F375:J375" si="112">AVERAGE(F367:F374)</f>
+        <v>0.8669015066964284</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="112"/>
+        <v>9.6728515624999997E-2</v>
+      </c>
+      <c r="H375">
+        <f t="shared" si="112"/>
+        <v>0.86583790058992316</v>
+      </c>
+      <c r="I375">
+        <f t="shared" si="112"/>
+        <v>9.0185546874999981E-2</v>
+      </c>
+      <c r="J375">
+        <f t="shared" si="112"/>
+        <v>0.98707452607534574</v>
+      </c>
+      <c r="K375">
+        <f>AVERAGE(K367:K374)</f>
+        <v>0.6877519237080898</v>
+      </c>
+      <c r="L375">
+        <f>AVERAGE(L367:L374)</f>
+        <v>0.99509239694511509</v>
+      </c>
+      <c r="M375">
+        <f t="shared" ref="M375" si="113">AVERAGE(M367:M374)</f>
+        <v>0.74099166618577672</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>27</v>
+      </c>
+      <c r="F376">
+        <f>_xlfn.STDEV.S(F367:F375)</f>
+        <v>1.5769161898951268E-3</v>
+      </c>
+      <c r="G376">
+        <f t="shared" ref="G376:J376" si="114">_xlfn.STDEV.S(G367:G375)</f>
+        <v>1.307709808146206E-2</v>
+      </c>
+      <c r="H376">
+        <f t="shared" si="114"/>
+        <v>1.9517440184379424E-3</v>
+      </c>
+      <c r="I376">
+        <f t="shared" si="114"/>
+        <v>1.356464295223545E-2</v>
+      </c>
+      <c r="J376">
+        <f t="shared" si="114"/>
+        <v>1.320253663370142E-3</v>
+      </c>
+      <c r="K376">
+        <f>_xlfn.STDEV.S(K367:K375)</f>
+        <v>1.2414691954150743E-2</v>
+      </c>
+      <c r="L376">
+        <f>_xlfn.STDEV.S(L367:L375)</f>
+        <v>2.9385215830794042E-4</v>
+      </c>
+      <c r="M376">
+        <f t="shared" ref="M376" si="115">_xlfn.STDEV.S(M367:M375)</f>
+        <v>1.7994500715083479E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>55</v>
+      </c>
+      <c r="B378" t="s">
+        <v>24</v>
+      </c>
+      <c r="C378" t="s">
+        <v>36</v>
+      </c>
+      <c r="D378">
+        <v>10</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0.83426339285714302</v>
+      </c>
+      <c r="G378">
+        <v>9.1796875E-2</v>
+      </c>
+      <c r="H378">
+        <v>0.83196614583333295</v>
+      </c>
+      <c r="I378">
+        <v>9.6875000000000003E-2</v>
+      </c>
+      <c r="J378">
+        <v>0.98584976374570399</v>
+      </c>
+      <c r="K378">
+        <v>0.65814508928571402</v>
+      </c>
+      <c r="L378">
+        <v>0.99364518462023899</v>
+      </c>
+      <c r="M378">
+        <v>0.70430357142857103</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>70</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>0.83613281249999905</v>
+      </c>
+      <c r="G379">
+        <v>0.109375</v>
+      </c>
+      <c r="H379">
+        <v>0.83457961309523798</v>
+      </c>
+      <c r="I379">
+        <v>0.13710937500000001</v>
+      </c>
+      <c r="J379">
+        <v>0.98594028223402697</v>
+      </c>
+      <c r="K379">
+        <v>0.71474107142857102</v>
+      </c>
+      <c r="L379">
+        <v>0.99372994358825895</v>
+      </c>
+      <c r="M379">
+        <v>0.78619866071428501</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <v>2</v>
+      </c>
+      <c r="F380">
+        <v>0.83247767857142796</v>
+      </c>
+      <c r="G380">
+        <v>0.119921875</v>
+      </c>
+      <c r="H380">
+        <v>0.83197544642857102</v>
+      </c>
+      <c r="I380">
+        <v>0.11679687499999999</v>
+      </c>
+      <c r="J380">
+        <v>0.98416069127393202</v>
+      </c>
+      <c r="K380">
+        <v>0.711270089285714</v>
+      </c>
+      <c r="L380">
+        <v>0.99319623023178305</v>
+      </c>
+      <c r="M380">
+        <v>0.76081919642857099</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <v>3</v>
+      </c>
+      <c r="F381">
+        <v>0.83680245535714204</v>
+      </c>
+      <c r="G381">
+        <v>0.1</v>
+      </c>
+      <c r="H381">
+        <v>0.83189174107142805</v>
+      </c>
+      <c r="I381">
+        <v>8.9453124999999994E-2</v>
+      </c>
+      <c r="J381">
+        <v>0.98349002274879005</v>
+      </c>
+      <c r="K381">
+        <v>0.69423660714285695</v>
+      </c>
+      <c r="L381">
+        <v>0.99343102821025298</v>
+      </c>
+      <c r="M381">
+        <v>0.76607366071428495</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <v>4</v>
+      </c>
+      <c r="F382">
+        <v>0.83099888392857102</v>
+      </c>
+      <c r="G382">
+        <v>0.11015625</v>
+      </c>
+      <c r="H382">
+        <v>0.83023623511904698</v>
+      </c>
+      <c r="I382">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="J382">
+        <v>0.98760954923206301</v>
+      </c>
+      <c r="K382">
+        <v>0.67468973214285699</v>
+      </c>
+      <c r="L382">
+        <v>0.99412542297846895</v>
+      </c>
+      <c r="M382">
+        <v>0.739756696428571</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <v>5</v>
+      </c>
+      <c r="F383">
+        <v>0.83531436011904703</v>
+      </c>
+      <c r="G383">
+        <v>0.100781249999999</v>
+      </c>
+      <c r="H383">
+        <v>0.83338913690476102</v>
+      </c>
+      <c r="I383">
+        <v>9.7265624999999994E-2</v>
+      </c>
+      <c r="J383">
+        <v>0.98646858234273005</v>
+      </c>
+      <c r="K383">
+        <v>0.68751116071428497</v>
+      </c>
+      <c r="L383">
+        <v>0.99378075798618404</v>
+      </c>
+      <c r="M383">
+        <v>0.76259598214285695</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <v>6</v>
+      </c>
+      <c r="F384">
+        <v>0.83379836309523803</v>
+      </c>
+      <c r="G384">
+        <v>9.4531249999999997E-2</v>
+      </c>
+      <c r="H384">
+        <v>0.83132440476190395</v>
+      </c>
+      <c r="I384">
+        <v>9.2968750000000003E-2</v>
+      </c>
+      <c r="J384">
+        <v>0.98587736692615102</v>
+      </c>
+      <c r="K384">
+        <v>0.66508258928571395</v>
+      </c>
+      <c r="L384">
+        <v>0.99352586195560699</v>
+      </c>
+      <c r="M384">
+        <v>0.712558035714285</v>
+      </c>
+    </row>
+    <row r="385" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <v>7</v>
+      </c>
+      <c r="F385">
+        <v>0.83351004464285705</v>
+      </c>
+      <c r="G385">
+        <v>8.2421875000000006E-2</v>
+      </c>
+      <c r="H385">
+        <v>0.83214285714285696</v>
+      </c>
+      <c r="I385">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="J385">
+        <v>0.98383207973911202</v>
+      </c>
+      <c r="K385">
+        <v>0.67938839285714203</v>
+      </c>
+      <c r="L385">
+        <v>0.99411799017287295</v>
+      </c>
+      <c r="M385">
+        <v>0.71521205357142803</v>
+      </c>
+    </row>
+    <row r="386" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>3</v>
+      </c>
+      <c r="F386">
+        <f t="shared" ref="F386:J386" si="116">AVERAGE(F378:F385)</f>
+        <v>0.8341622488839282</v>
+      </c>
+      <c r="G386">
+        <f t="shared" si="116"/>
+        <v>0.10112304687499987</v>
+      </c>
+      <c r="H386">
+        <f t="shared" si="116"/>
+        <v>0.83218819754464235</v>
+      </c>
+      <c r="I386">
+        <f t="shared" si="116"/>
+        <v>9.6582031250000019E-2</v>
+      </c>
+      <c r="J386">
+        <f t="shared" si="116"/>
+        <v>0.98540354228031368</v>
+      </c>
+      <c r="K386">
+        <f>AVERAGE(K378:K385)</f>
+        <v>0.68563309151785679</v>
+      </c>
+      <c r="L386">
+        <f>AVERAGE(L378:L385)</f>
+        <v>0.99369405246795839</v>
+      </c>
+      <c r="M386">
+        <f t="shared" ref="M386" si="117">AVERAGE(M378:M385)</f>
+        <v>0.74343973214285675</v>
+      </c>
+    </row>
+    <row r="387" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>27</v>
+      </c>
+      <c r="F387">
+        <f>_xlfn.STDEV.S(F378:F386)</f>
+        <v>1.7886391407089404E-3</v>
+      </c>
+      <c r="G387">
+        <f t="shared" ref="G387:J387" si="118">_xlfn.STDEV.S(G378:G386)</f>
+        <v>1.1094089556588324E-2</v>
+      </c>
+      <c r="H387">
+        <f t="shared" si="118"/>
+        <v>1.2197300499080578E-3</v>
+      </c>
+      <c r="I387">
+        <f t="shared" si="118"/>
+        <v>2.2229402759541165E-2</v>
+      </c>
+      <c r="J387">
+        <f t="shared" si="118"/>
+        <v>1.3410919205443486E-3</v>
+      </c>
+      <c r="K387">
+        <f>_xlfn.STDEV.S(K378:K386)</f>
+        <v>1.9100865682374762E-2</v>
+      </c>
+      <c r="L387">
+        <f>_xlfn.STDEV.S(L378:L386)</f>
+        <v>3.0047765481634069E-4</v>
+      </c>
+      <c r="M387">
+        <f t="shared" ref="M387" si="119">_xlfn.STDEV.S(M378:M386)</f>
+        <v>2.8074261404886964E-2</v>
       </c>
     </row>
   </sheetData>
